--- a/raw_data/20200818_saline/20200818_Sensor3_Test_78.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_78.xlsx
@@ -1,915 +1,1331 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23544666-4A4A-4A60-83C3-7CD906EBB9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>69855.013496</v>
       </c>
       <c r="B2" s="1">
-        <v>19.404170</v>
+        <v>19.404170000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1148.040000</v>
+        <v>1148.04</v>
       </c>
       <c r="D2" s="1">
-        <v>-250.528000</v>
+        <v>-250.52799999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>69865.414567</v>
       </c>
       <c r="G2" s="1">
-        <v>19.407060</v>
+        <v>19.407060000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.100000</v>
+        <v>1169.0999999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-211.175000</v>
+        <v>-211.17500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>69875.837496</v>
+        <v>69875.837495999993</v>
       </c>
       <c r="L2" s="1">
         <v>19.409955</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.780000</v>
+        <v>1195.78</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.087000</v>
+        <v>-148.08699999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>69886.617051</v>
+        <v>69886.617050999994</v>
       </c>
       <c r="Q2" s="1">
-        <v>19.412949</v>
+        <v>19.412949000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1203.910000</v>
+        <v>1203.9100000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-126.831000</v>
+        <v>-126.831</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>69897.127275</v>
+        <v>69897.127275000006</v>
       </c>
       <c r="V2" s="1">
-        <v>19.415869</v>
+        <v>19.415869000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1211.550000</v>
+        <v>1211.55</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.816000</v>
+        <v>-106.816</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>69907.542272</v>
+        <v>69907.542272000006</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.418762</v>
+        <v>19.418762000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1219.300000</v>
+        <v>1219.3</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.485700</v>
+        <v>-90.485699999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>69918.095648</v>
+        <v>69918.095648000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.421693</v>
+        <v>19.421693000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1224.310000</v>
+        <v>1224.31</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.192600</v>
+        <v>-86.192599999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>69928.534948</v>
       </c>
       <c r="AK2" s="1">
-        <v>19.424593</v>
+        <v>19.424593000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1231.670000</v>
+        <v>1231.67</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.817800</v>
+        <v>-89.817800000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>69939.419652</v>
+        <v>69939.419651999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>19.427617</v>
+        <v>19.427617000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1239.740000</v>
+        <v>1239.74</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.874000</v>
+        <v>-101.874</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>69950.092112</v>
+        <v>69950.092111999998</v>
       </c>
       <c r="AU2" s="1">
         <v>19.430581</v>
       </c>
       <c r="AV2" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.321000</v>
+        <v>-121.321</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>69960.592414</v>
+        <v>69960.592413999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>19.433498</v>
       </c>
       <c r="BA2" s="1">
-        <v>1258.510000</v>
+        <v>1258.51</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.904000</v>
+        <v>-138.904</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>69971.242510</v>
+        <v>69971.242509999996</v>
       </c>
       <c r="BE2" s="1">
         <v>19.436456</v>
       </c>
       <c r="BF2" s="1">
-        <v>1299.150000</v>
+        <v>1299.1500000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.198000</v>
+        <v>-221.19800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>69981.898061</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.439416</v>
+        <v>19.439416000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1369.930000</v>
+        <v>1369.93</v>
       </c>
       <c r="BL2" s="1">
-        <v>-357.701000</v>
+        <v>-357.70100000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>69993.073426</v>
+        <v>69993.073426000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.442520</v>
+        <v>19.442519999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1486.350000</v>
+        <v>1486.35</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.582000</v>
+        <v>-578.58199999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>70004.222959</v>
+        <v>70004.222959000006</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.445617</v>
+        <v>19.445616999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1620.110000</v>
+        <v>1620.11</v>
       </c>
       <c r="BV2" s="1">
-        <v>-826.840000</v>
+        <v>-826.84</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>70015.591761</v>
+        <v>70015.591761000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.448775</v>
+        <v>19.448775000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1774.240000</v>
+        <v>1774.24</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1094.720000</v>
+        <v>-1094.72</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>70026.655520</v>
+        <v>70026.65552</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.451849</v>
+        <v>19.451848999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2192.850000</v>
+        <v>2192.85</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1740.470000</v>
+        <v>-1740.47</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>69855.403852</v>
+        <v>69855.403852000003</v>
       </c>
       <c r="B3" s="1">
-        <v>19.404279</v>
+        <v>19.404278999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1147.910000</v>
+        <v>1147.9100000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-250.244000</v>
+        <v>-250.244</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>69865.765774</v>
       </c>
       <c r="G3" s="1">
-        <v>19.407157</v>
+        <v>19.407157000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1168.370000</v>
+        <v>1168.3699999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-211.132000</v>
+        <v>-211.13200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>69876.555704</v>
+        <v>69876.555703999999</v>
       </c>
       <c r="L3" s="1">
-        <v>19.410154</v>
+        <v>19.410153999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1195.790000</v>
+        <v>1195.79</v>
       </c>
       <c r="N3" s="1">
-        <v>-147.834000</v>
+        <v>-147.834</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>69886.969707</v>
+        <v>69886.969706999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.413047</v>
+        <v>19.413046999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.920000</v>
+        <v>1203.92</v>
       </c>
       <c r="S3" s="1">
-        <v>-126.830000</v>
+        <v>-126.83</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>69897.471035</v>
+        <v>69897.471034999995</v>
       </c>
       <c r="V3" s="1">
-        <v>19.415964</v>
+        <v>19.415963999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1211.440000</v>
+        <v>1211.44</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.712000</v>
+        <v>-106.712</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>69907.901871</v>
+        <v>69907.901870999995</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.418862</v>
+        <v>19.418862000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1219.400000</v>
+        <v>1219.4000000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.460500</v>
+        <v>-90.460499999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>69918.460740</v>
+        <v>69918.460739999995</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.421795</v>
+        <v>19.421794999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1224.290000</v>
+        <v>1224.29</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.243100</v>
+        <v>-86.243099999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>69929.225914</v>
+        <v>69929.225913999995</v>
       </c>
       <c r="AK3" s="1">
         <v>19.424785</v>
       </c>
       <c r="AL3" s="1">
-        <v>1231.630000</v>
+        <v>1231.6300000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.787200</v>
+        <v>-89.787199999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>69939.526291</v>
+        <v>69939.526291000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.427646</v>
+        <v>19.427645999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1239.810000</v>
+        <v>1239.81</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.878000</v>
+        <v>-101.878</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>69950.534534</v>
+        <v>69950.534534000006</v>
       </c>
       <c r="AU3" s="1">
-        <v>19.430704</v>
+        <v>19.430703999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1249.950000</v>
+        <v>1249.95</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.330000</v>
+        <v>-121.33</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>69960.952008</v>
+        <v>69960.952007999993</v>
       </c>
       <c r="AZ3" s="1">
         <v>19.433598</v>
       </c>
       <c r="BA3" s="1">
-        <v>1258.490000</v>
+        <v>1258.49</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.886000</v>
+        <v>-138.886</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>69971.610505</v>
+        <v>69971.610505000004</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.436558</v>
+        <v>19.436558000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1299.140000</v>
+        <v>1299.1400000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.211000</v>
+        <v>-221.21100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>69982.289867</v>
@@ -918,28 +1334,28 @@
         <v>19.439525</v>
       </c>
       <c r="BK3" s="1">
-        <v>1369.920000</v>
+        <v>1369.92</v>
       </c>
       <c r="BL3" s="1">
-        <v>-357.734000</v>
+        <v>-357.73399999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>69993.505442</v>
+        <v>69993.505441999994</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.442640</v>
+        <v>19.442640000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1486.340000</v>
+        <v>1486.34</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.579000</v>
+        <v>-578.57899999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>70004.676303</v>
@@ -948,13 +1364,13 @@
         <v>19.445743</v>
       </c>
       <c r="BU3" s="1">
-        <v>1620.140000</v>
+        <v>1620.14</v>
       </c>
       <c r="BV3" s="1">
-        <v>-826.926000</v>
+        <v>-826.92600000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>70015.773791</v>
@@ -963,634 +1379,634 @@
         <v>19.448826</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1774.220000</v>
+        <v>1774.22</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1094.780000</v>
+        <v>-1094.78</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>70027.225426</v>
+        <v>70027.225426000005</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.452007</v>
+        <v>19.452006999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>2192.250000</v>
+        <v>2192.25</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1742.470000</v>
+        <v>-1742.47</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>69856.085810</v>
+        <v>69856.085810000004</v>
       </c>
       <c r="B4" s="1">
-        <v>19.404468</v>
+        <v>19.404468000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1147.830000</v>
+        <v>1147.83</v>
       </c>
       <c r="D4" s="1">
-        <v>-250.508000</v>
+        <v>-250.50800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>69866.450710</v>
+        <v>69866.450710000005</v>
       </c>
       <c r="G4" s="1">
-        <v>19.407347</v>
+        <v>19.407347000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1168.780000</v>
+        <v>1168.78</v>
       </c>
       <c r="I4" s="1">
-        <v>-211.533000</v>
+        <v>-211.53299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>69876.902904</v>
+        <v>69876.902904000002</v>
       </c>
       <c r="L4" s="1">
-        <v>19.410251</v>
+        <v>19.410250999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.007000</v>
+        <v>-148.00700000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>69887.321369</v>
+        <v>69887.321368999998</v>
       </c>
       <c r="Q4" s="1">
         <v>19.413145</v>
       </c>
       <c r="R4" s="1">
-        <v>1203.840000</v>
+        <v>1203.8399999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-126.858000</v>
+        <v>-126.858</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>69897.821180</v>
+        <v>69897.821179999999</v>
       </c>
       <c r="V4" s="1">
-        <v>19.416061</v>
+        <v>19.416060999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1211.440000</v>
+        <v>1211.44</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.754000</v>
+        <v>-106.754</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>69908.555102</v>
+        <v>69908.555101999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>19.419043</v>
+        <v>19.419042999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1219.370000</v>
+        <v>1219.3699999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.311600</v>
+        <v>-90.311599999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>69919.366544</v>
+        <v>69919.366544000004</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.422046</v>
+        <v>19.422046000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1224.250000</v>
+        <v>1224.25</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.188900</v>
+        <v>-86.188900000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>69929.609778</v>
+        <v>69929.609777999998</v>
       </c>
       <c r="AK4" s="1">
         <v>19.424892</v>
       </c>
       <c r="AL4" s="1">
-        <v>1231.640000</v>
+        <v>1231.6400000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.773900</v>
+        <v>-89.773899999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>69939.885891</v>
+        <v>69939.885890999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.427746</v>
+        <v>19.427745999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1239.780000</v>
+        <v>1239.78</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.878000</v>
+        <v>-101.878</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>69950.898565</v>
+        <v>69950.898564999996</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.430805</v>
+        <v>19.430804999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1249.900000</v>
+        <v>1249.9000000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.353000</v>
+        <v>-121.35299999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>69961.310120</v>
+        <v>69961.310119999995</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.433697</v>
+        <v>19.433696999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1258.480000</v>
+        <v>1258.48</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.907000</v>
+        <v>-138.90700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>69971.971593</v>
+        <v>69971.971592999995</v>
       </c>
       <c r="BE4" s="1">
-        <v>19.436659</v>
+        <v>19.436658999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1299.120000</v>
+        <v>1299.1199999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.221000</v>
+        <v>-221.221</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>69982.720395</v>
+        <v>69982.720394999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.439645</v>
+        <v>19.439644999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1369.930000</v>
+        <v>1369.93</v>
       </c>
       <c r="BL4" s="1">
-        <v>-357.703000</v>
+        <v>-357.70299999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>69993.914605</v>
+        <v>69993.914604999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>19.442754</v>
+        <v>19.442754000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1486.380000</v>
+        <v>1486.38</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.614000</v>
+        <v>-578.61400000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>70005.099885</v>
+        <v>70005.099885000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.445861</v>
+        <v>19.445861000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1620.120000</v>
+        <v>1620.12</v>
       </c>
       <c r="BV4" s="1">
-        <v>-826.920000</v>
+        <v>-826.92</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>70016.222672</v>
+        <v>70016.222672000004</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.448951</v>
+        <v>19.448951000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1774.270000</v>
+        <v>1774.27</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1094.830000</v>
+        <v>-1094.83</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>70027.742255</v>
+        <v>70027.742255000005</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.452151</v>
+        <v>19.452151000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>2193.930000</v>
+        <v>2193.9299999999998</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1742.870000</v>
+        <v>-1742.87</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>69856.429041</v>
+        <v>69856.429040999996</v>
       </c>
       <c r="B5" s="1">
-        <v>19.404564</v>
+        <v>19.404564000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1147.990000</v>
+        <v>1147.99</v>
       </c>
       <c r="D5" s="1">
-        <v>-250.290000</v>
+        <v>-250.29</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>69866.789477</v>
+        <v>69866.789476999998</v>
       </c>
       <c r="G5" s="1">
         <v>19.407442</v>
       </c>
       <c r="H5" s="1">
-        <v>1168.640000</v>
+        <v>1168.6400000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-210.318000</v>
+        <v>-210.31800000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>69877.247128</v>
+        <v>69877.247128000003</v>
       </c>
       <c r="L5" s="1">
-        <v>19.410346</v>
+        <v>19.410346000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1196.090000</v>
+        <v>1196.0899999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-147.956000</v>
+        <v>-147.95599999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>69887.977608</v>
+        <v>69887.977608000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.413327</v>
+        <v>19.413326999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1203.830000</v>
+        <v>1203.83</v>
       </c>
       <c r="S5" s="1">
-        <v>-126.785000</v>
+        <v>-126.785</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>69898.476890</v>
+        <v>69898.476890000005</v>
       </c>
       <c r="V5" s="1">
-        <v>19.416244</v>
+        <v>19.416243999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1211.370000</v>
+        <v>1211.3699999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.826000</v>
+        <v>-106.82599999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>69908.949451</v>
+        <v>69908.949450999993</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.419153</v>
+        <v>19.419153000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1219.440000</v>
+        <v>1219.44</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.372500</v>
+        <v>-90.372500000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>69919.490398</v>
+        <v>69919.490397999994</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.422081</v>
+        <v>19.422080999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1224.260000</v>
+        <v>1224.26</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.115800</v>
+        <v>-86.115799999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>69929.957472</v>
+        <v>69929.957471999995</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.424988</v>
+        <v>19.424987999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1231.630000</v>
+        <v>1231.6300000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.804300</v>
+        <v>-89.804299999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>69940.243011</v>
+        <v>69940.243010999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>19.427845</v>
+        <v>19.427845000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1239.790000</v>
+        <v>1239.79</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.873000</v>
+        <v>-101.873</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>69951.264614</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.430907</v>
+        <v>19.430907000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.327000</v>
+        <v>-121.327</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>69961.726263</v>
+        <v>69961.726263000004</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.433813</v>
+        <v>19.433813000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1258.490000</v>
+        <v>1258.49</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.913000</v>
+        <v>-138.91300000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>69972.480985</v>
+        <v>69972.480985000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.436800</v>
+        <v>19.436800000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.217000</v>
+        <v>-221.21700000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>69983.038859</v>
+        <v>69983.038858999993</v>
       </c>
       <c r="BJ5" s="1">
         <v>19.439733</v>
       </c>
       <c r="BK5" s="1">
-        <v>1369.940000</v>
+        <v>1369.94</v>
       </c>
       <c r="BL5" s="1">
-        <v>-357.726000</v>
+        <v>-357.726</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>69994.309689</v>
+        <v>69994.309689000002</v>
       </c>
       <c r="BO5" s="1">
         <v>19.442864</v>
       </c>
       <c r="BP5" s="1">
-        <v>1486.380000</v>
+        <v>1486.38</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.639000</v>
+        <v>-578.63900000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>70005.509581</v>
+        <v>70005.509581000006</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.445975</v>
+        <v>19.445975000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1620.130000</v>
+        <v>1620.13</v>
       </c>
       <c r="BV5" s="1">
-        <v>-827.015000</v>
+        <v>-827.01499999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>70016.679022</v>
+        <v>70016.679021999997</v>
       </c>
       <c r="BY5" s="1">
         <v>19.449078</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1774.270000</v>
+        <v>1774.27</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1094.890000</v>
+        <v>-1094.8900000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>70028.262063</v>
+        <v>70028.262063000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>19.452295</v>
+        <v>19.452294999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>2193.830000</v>
+        <v>2193.83</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1741.010000</v>
+        <v>-1741.01</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>69856.767843</v>
+        <v>69856.767842999994</v>
       </c>
       <c r="B6" s="1">
-        <v>19.404658</v>
+        <v>19.404658000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1148.040000</v>
+        <v>1148.04</v>
       </c>
       <c r="D6" s="1">
-        <v>-250.752000</v>
+        <v>-250.75200000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>69867.446216</v>
+        <v>69867.446215999997</v>
       </c>
       <c r="G6" s="1">
-        <v>19.407624</v>
+        <v>19.407623999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>1168.610000</v>
+        <v>1168.6099999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-210.454000</v>
+        <v>-210.45400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>69877.903378</v>
+        <v>69877.903378000003</v>
       </c>
       <c r="L6" s="1">
         <v>19.410529</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.930000</v>
+        <v>1195.93</v>
       </c>
       <c r="N6" s="1">
-        <v>-147.811000</v>
+        <v>-147.81100000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>69888.364959</v>
+        <v>69888.364958999999</v>
       </c>
       <c r="Q6" s="1">
         <v>19.413435</v>
       </c>
       <c r="R6" s="1">
-        <v>1203.900000</v>
+        <v>1203.9000000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-126.733000</v>
+        <v>-126.733</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>69898.848922</v>
+        <v>69898.848922000005</v>
       </c>
       <c r="V6" s="1">
-        <v>19.416347</v>
+        <v>19.416346999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>1211.490000</v>
+        <v>1211.49</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.014000</v>
+        <v>-107.014</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>69909.295628</v>
+        <v>69909.295628000007</v>
       </c>
       <c r="AA6" s="1">
-        <v>19.419249</v>
+        <v>19.419249000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1219.430000</v>
+        <v>1219.43</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.414000</v>
+        <v>-90.414000000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>69919.833134</v>
@@ -1599,2993 +2015,2993 @@
         <v>19.422176</v>
       </c>
       <c r="AG6" s="1">
-        <v>1224.230000</v>
+        <v>1224.23</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.223500</v>
+        <v>-86.223500000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>69930.309632</v>
+        <v>69930.309632000004</v>
       </c>
       <c r="AK6" s="1">
         <v>19.425086</v>
       </c>
       <c r="AL6" s="1">
-        <v>1231.660000</v>
+        <v>1231.6600000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.820900</v>
+        <v>-89.820899999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>69940.660148</v>
+        <v>69940.660147999995</v>
       </c>
       <c r="AP6" s="1">
         <v>19.427961</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1239.780000</v>
+        <v>1239.78</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.838000</v>
+        <v>-101.83799999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>69951.687700</v>
+        <v>69951.687699999995</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.431024</v>
+        <v>19.431024000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.344000</v>
+        <v>-121.34399999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>69962.031302</v>
+        <v>69962.031302000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>19.433898</v>
+        <v>19.433897999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1258.490000</v>
+        <v>1258.49</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.936000</v>
+        <v>-138.93600000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>69972.694264</v>
+        <v>69972.694264000005</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.436860</v>
+        <v>19.436859999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1299.140000</v>
+        <v>1299.1400000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.167000</v>
+        <v>-221.167</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>69983.413306</v>
+        <v>69983.413306000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.439837</v>
+        <v>19.439837000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1369.910000</v>
+        <v>1369.91</v>
       </c>
       <c r="BL6" s="1">
-        <v>-357.730000</v>
+        <v>-357.73</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>69994.723578</v>
+        <v>69994.723578000005</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.442979</v>
+        <v>19.442979000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1486.410000</v>
+        <v>1486.41</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.613000</v>
+        <v>-578.61300000000006</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>70005.928205</v>
+        <v>70005.928205000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.446091</v>
+        <v>19.446090999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1620.150000</v>
+        <v>1620.15</v>
       </c>
       <c r="BV6" s="1">
-        <v>-826.942000</v>
+        <v>-826.94200000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>70017.127902</v>
+        <v>70017.127901999993</v>
       </c>
       <c r="BY6" s="1">
         <v>19.449202</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1774.240000</v>
+        <v>1774.24</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1094.730000</v>
+        <v>-1094.73</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>70028.779888</v>
+        <v>70028.779888000005</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.452439</v>
+        <v>19.452438999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>2194.390000</v>
+        <v>2194.39</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1740.780000</v>
+        <v>-1740.78</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>69857.421860</v>
+        <v>69857.421860000002</v>
       </c>
       <c r="B7" s="1">
-        <v>19.404839</v>
+        <v>19.404838999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1147.970000</v>
+        <v>1147.97</v>
       </c>
       <c r="D7" s="1">
-        <v>-250.422000</v>
+        <v>-250.422</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>69867.827603</v>
+        <v>69867.827602999998</v>
       </c>
       <c r="G7" s="1">
-        <v>19.407730</v>
+        <v>19.407730000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1168.210000</v>
+        <v>1168.21</v>
       </c>
       <c r="I7" s="1">
-        <v>-211.752000</v>
+        <v>-211.75200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>69878.285253</v>
+        <v>69878.285252999995</v>
       </c>
       <c r="L7" s="1">
-        <v>19.410635</v>
+        <v>19.410634999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1196.040000</v>
+        <v>1196.04</v>
       </c>
       <c r="N7" s="1">
-        <v>-147.748000</v>
+        <v>-147.74799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>69888.711160</v>
+        <v>69888.711160000006</v>
       </c>
       <c r="Q7" s="1">
-        <v>19.413531</v>
+        <v>19.413530999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1203.990000</v>
+        <v>1203.99</v>
       </c>
       <c r="S7" s="1">
-        <v>-126.788000</v>
+        <v>-126.788</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>69899.193145</v>
+        <v>69899.193144999997</v>
       </c>
       <c r="V7" s="1">
-        <v>19.416443</v>
+        <v>19.416443000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1211.320000</v>
+        <v>1211.32</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.762000</v>
+        <v>-106.762</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>69909.644347</v>
+        <v>69909.644346999994</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.419346</v>
+        <v>19.419346000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1219.450000</v>
+        <v>1219.45</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.499400</v>
+        <v>-90.499399999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>69920.265646</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.422296</v>
+        <v>19.422295999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1224.260000</v>
+        <v>1224.26</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.179100</v>
+        <v>-86.179100000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>69930.720816</v>
+        <v>69930.720816000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>19.425200</v>
+        <v>19.4252</v>
       </c>
       <c r="AL7" s="1">
-        <v>1231.620000</v>
+        <v>1231.6199999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.788500</v>
+        <v>-89.788499999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>69940.964692</v>
+        <v>69940.964691999994</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.428046</v>
+        <v>19.428045999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1239.770000</v>
+        <v>1239.77</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.862000</v>
+        <v>-101.86199999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>69951.992275</v>
+        <v>69951.992274999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>19.431109</v>
+        <v>19.431108999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.358000</v>
+        <v>-121.358</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>69962.389420</v>
+        <v>69962.389420000007</v>
       </c>
       <c r="AZ7" s="1">
-        <v>19.433997</v>
+        <v>19.433997000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1258.500000</v>
+        <v>1258.5</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.912000</v>
+        <v>-138.91200000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>69973.051879</v>
+        <v>69973.051879000006</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.436959</v>
+        <v>19.436959000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1299.120000</v>
+        <v>1299.1199999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.216000</v>
+        <v>-221.21600000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>69983.816089</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.439949</v>
+        <v>19.439948999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1369.910000</v>
+        <v>1369.91</v>
       </c>
       <c r="BL7" s="1">
-        <v>-357.720000</v>
+        <v>-357.72</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>69995.525114</v>
+        <v>69995.525114000004</v>
       </c>
       <c r="BO7" s="1">
-        <v>19.443201</v>
+        <v>19.443200999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1486.350000</v>
+        <v>1486.35</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.590000</v>
+        <v>-578.59</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>70006.357748</v>
+        <v>70006.357747999995</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.446210</v>
+        <v>19.446210000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1620.170000</v>
+        <v>1620.17</v>
       </c>
       <c r="BV7" s="1">
-        <v>-827.030000</v>
+        <v>-827.03</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>70017.583693</v>
+        <v>70017.583692999993</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.449329</v>
+        <v>19.449328999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1774.110000</v>
+        <v>1774.11</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1094.880000</v>
+        <v>-1094.8800000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>70029.329454</v>
+        <v>70029.329454000006</v>
       </c>
       <c r="CD7" s="1">
-        <v>19.452592</v>
+        <v>19.452591999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>2194.570000</v>
+        <v>2194.5700000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1742.340000</v>
+        <v>-1742.34</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>69857.795521</v>
+        <v>69857.795520999993</v>
       </c>
       <c r="B8" s="1">
-        <v>19.404943</v>
+        <v>19.404942999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1148.010000</v>
+        <v>1148.01</v>
       </c>
       <c r="D8" s="1">
-        <v>-250.675000</v>
+        <v>-250.67500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>69868.171077</v>
+        <v>69868.171077000006</v>
       </c>
       <c r="G8" s="1">
-        <v>19.407825</v>
+        <v>19.407824999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1168.230000</v>
+        <v>1168.23</v>
       </c>
       <c r="I8" s="1">
-        <v>-210.296000</v>
+        <v>-210.29599999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>69878.630964</v>
+        <v>69878.630963999996</v>
       </c>
       <c r="L8" s="1">
-        <v>19.410731</v>
+        <v>19.410730999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.930000</v>
+        <v>1195.93</v>
       </c>
       <c r="N8" s="1">
-        <v>-147.931000</v>
+        <v>-147.93100000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>69889.062359</v>
+        <v>69889.062359000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>19.413628</v>
+        <v>19.413627999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1203.980000</v>
+        <v>1203.98</v>
       </c>
       <c r="S8" s="1">
-        <v>-126.835000</v>
+        <v>-126.83499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>69899.536345</v>
       </c>
       <c r="V8" s="1">
-        <v>19.416538</v>
+        <v>19.416537999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1211.480000</v>
+        <v>1211.48</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.809000</v>
+        <v>-106.809</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>69910.065450</v>
+        <v>69910.065449999995</v>
       </c>
       <c r="AA8" s="1">
         <v>19.419463</v>
       </c>
       <c r="AB8" s="1">
-        <v>1219.370000</v>
+        <v>1219.3699999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.472900</v>
+        <v>-90.472899999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>69920.538941</v>
+        <v>69920.538941000006</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.422372</v>
+        <v>19.422371999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1224.160000</v>
+        <v>1224.1600000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.278000</v>
+        <v>-86.278000000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>69931.018429</v>
+        <v>69931.018429000003</v>
       </c>
       <c r="AK8" s="1">
         <v>19.425283</v>
       </c>
       <c r="AL8" s="1">
-        <v>1231.630000</v>
+        <v>1231.6300000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.804700</v>
+        <v>-89.804699999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>69941.327267</v>
+        <v>69941.327267000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.428146</v>
+        <v>19.428146000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1239.800000</v>
+        <v>1239.8</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.877000</v>
+        <v>-101.877</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>69952.356805</v>
+        <v>69952.356805000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>19.431210</v>
+        <v>19.43121</v>
       </c>
       <c r="AV8" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.339000</v>
+        <v>-121.339</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>69962.748487</v>
+        <v>69962.748487000004</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.434097</v>
+        <v>19.434097000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1258.470000</v>
+        <v>1258.47</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.897000</v>
+        <v>-138.89699999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>69973.778158</v>
+        <v>69973.778158000001</v>
       </c>
       <c r="BE8" s="1">
         <v>19.437161</v>
       </c>
       <c r="BF8" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.207000</v>
+        <v>-221.20699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>69984.566504</v>
+        <v>69984.566504000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.440157</v>
+        <v>19.440156999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1369.920000</v>
+        <v>1369.92</v>
       </c>
       <c r="BL8" s="1">
-        <v>-357.740000</v>
+        <v>-357.74</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>69995.939770</v>
+        <v>69995.939769999997</v>
       </c>
       <c r="BO8" s="1">
         <v>19.443317</v>
       </c>
       <c r="BP8" s="1">
-        <v>1486.340000</v>
+        <v>1486.34</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.605000</v>
+        <v>-578.60500000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>70006.758011</v>
+        <v>70006.758010999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.446322</v>
+        <v>19.446321999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1620.190000</v>
+        <v>1620.19</v>
       </c>
       <c r="BV8" s="1">
-        <v>-827.029000</v>
+        <v>-827.029</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>70018.033068</v>
+        <v>70018.033068000004</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.449454</v>
+        <v>19.449453999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1774.240000</v>
+        <v>1774.24</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1094.930000</v>
+        <v>-1094.93</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>70030.168685</v>
+        <v>70030.168684999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.452825</v>
+        <v>19.452825000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2193.540000</v>
+        <v>2193.54</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1740.400000</v>
+        <v>-1740.4</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>69858.132305</v>
+        <v>69858.132305000006</v>
       </c>
       <c r="B9" s="1">
         <v>19.405037</v>
       </c>
       <c r="C9" s="1">
-        <v>1147.970000</v>
+        <v>1147.97</v>
       </c>
       <c r="D9" s="1">
-        <v>-250.743000</v>
+        <v>-250.74299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>69868.513108</v>
+        <v>69868.513107999999</v>
       </c>
       <c r="G9" s="1">
-        <v>19.407920</v>
+        <v>19.407920000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1168.400000</v>
+        <v>1168.4000000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-210.618000</v>
+        <v>-210.61799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>69878.975685</v>
+        <v>69878.975684999998</v>
       </c>
       <c r="L9" s="1">
-        <v>19.410827</v>
+        <v>19.410827000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.940000</v>
+        <v>1195.94</v>
       </c>
       <c r="N9" s="1">
-        <v>-147.771000</v>
+        <v>-147.77099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>69889.487398</v>
+        <v>69889.487397999997</v>
       </c>
       <c r="Q9" s="1">
         <v>19.413746</v>
       </c>
       <c r="R9" s="1">
-        <v>1203.940000</v>
+        <v>1203.94</v>
       </c>
       <c r="S9" s="1">
-        <v>-126.845000</v>
+        <v>-126.845</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>69899.975801</v>
+        <v>69899.975800999993</v>
       </c>
       <c r="V9" s="1">
-        <v>19.416660</v>
+        <v>19.41666</v>
       </c>
       <c r="W9" s="1">
-        <v>1211.480000</v>
+        <v>1211.48</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.791000</v>
+        <v>-106.791</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>69910.345658</v>
+        <v>69910.345658000006</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.419540</v>
+        <v>19.419540000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1219.340000</v>
+        <v>1219.3399999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.443800</v>
+        <v>-90.443799999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>69920.881676</v>
+        <v>69920.881676000005</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.422467</v>
+        <v>19.422467000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1224.460000</v>
+        <v>1224.46</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.323900</v>
+        <v>-86.323899999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>69931.366111</v>
+        <v>69931.366110999996</v>
       </c>
       <c r="AK9" s="1">
         <v>19.425379</v>
       </c>
       <c r="AL9" s="1">
-        <v>1231.630000</v>
+        <v>1231.6300000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.794300</v>
+        <v>-89.794300000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>69941.688849</v>
+        <v>69941.688848999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.428247</v>
+        <v>19.428246999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1239.780000</v>
+        <v>1239.78</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.877000</v>
+        <v>-101.877</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>69952.723346</v>
+        <v>69952.723345999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>19.431312</v>
+        <v>19.431311999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1249.940000</v>
+        <v>1249.94</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.344000</v>
+        <v>-121.34399999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>69963.470663</v>
       </c>
       <c r="AZ9" s="1">
-        <v>19.434297</v>
+        <v>19.434297000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1258.460000</v>
+        <v>1258.46</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.951000</v>
+        <v>-138.95099999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>69974.158455</v>
+        <v>69974.158454999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.437266</v>
+        <v>19.437266000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1299.140000</v>
+        <v>1299.1400000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.221000</v>
+        <v>-221.221</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>69984.967768</v>
+        <v>69984.967768000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.440269</v>
+        <v>19.440269000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1369.950000</v>
+        <v>1369.95</v>
       </c>
       <c r="BL9" s="1">
-        <v>-357.751000</v>
+        <v>-357.75099999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>69996.335609</v>
+        <v>69996.335609000002</v>
       </c>
       <c r="BO9" s="1">
         <v>19.443427</v>
       </c>
       <c r="BP9" s="1">
-        <v>1486.340000</v>
+        <v>1486.34</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.607000</v>
+        <v>-578.60699999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>70007.175155</v>
+        <v>70007.175155000004</v>
       </c>
       <c r="BT9" s="1">
-        <v>19.446438</v>
+        <v>19.446438000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1620.240000</v>
+        <v>1620.24</v>
       </c>
       <c r="BV9" s="1">
-        <v>-827.162000</v>
+        <v>-827.16200000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>70018.802395</v>
+        <v>70018.802395000006</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.449667</v>
+        <v>19.449667000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1774.200000</v>
+        <v>1774.2</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1094.830000</v>
+        <v>-1094.83</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>70030.409276</v>
+        <v>70030.409276000006</v>
       </c>
       <c r="CD9" s="1">
-        <v>19.452891</v>
+        <v>19.452891000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2191.920000</v>
+        <v>2191.92</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1742.300000</v>
+        <v>-1742.3</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>69858.475536</v>
+        <v>69858.475535999998</v>
       </c>
       <c r="B10" s="1">
-        <v>19.405132</v>
+        <v>19.405131999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>1147.960000</v>
+        <v>1147.96</v>
       </c>
       <c r="D10" s="1">
-        <v>-250.477000</v>
+        <v>-250.477</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>69868.929713</v>
+        <v>69868.929713000005</v>
       </c>
       <c r="G10" s="1">
-        <v>19.408036</v>
+        <v>19.408035999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1169.250000</v>
+        <v>1169.25</v>
       </c>
       <c r="I10" s="1">
-        <v>-211.188000</v>
+        <v>-211.18799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>69879.393843</v>
+        <v>69879.393842999998</v>
       </c>
       <c r="L10" s="1">
         <v>19.410943</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.780000</v>
+        <v>1195.78</v>
       </c>
       <c r="N10" s="1">
-        <v>-147.902000</v>
+        <v>-147.90199999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>69889.767637</v>
+        <v>69889.767636999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.413824</v>
+        <v>19.413824000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.870000</v>
+        <v>1203.8699999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-126.864000</v>
+        <v>-126.864</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>69900.235704</v>
+        <v>69900.235704000006</v>
       </c>
       <c r="V10" s="1">
         <v>19.416732</v>
       </c>
       <c r="W10" s="1">
-        <v>1211.400000</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.904000</v>
+        <v>-106.904</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>69910.691896</v>
+        <v>69910.691896000004</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.419637</v>
+        <v>19.419637000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1219.460000</v>
+        <v>1219.46</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.503600</v>
+        <v>-90.503600000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>69921.226429</v>
+        <v>69921.226429000002</v>
       </c>
       <c r="AF10" s="1">
         <v>19.422563</v>
       </c>
       <c r="AG10" s="1">
-        <v>1224.300000</v>
+        <v>1224.3</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.245400</v>
+        <v>-86.245400000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>69931.717310</v>
+        <v>69931.717310000007</v>
       </c>
       <c r="AK10" s="1">
-        <v>19.425477</v>
+        <v>19.425477000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1231.630000</v>
+        <v>1231.6300000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.776400</v>
+        <v>-89.776399999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>69942.406097</v>
+        <v>69942.406096999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>19.428446</v>
+        <v>19.428446000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1239.780000</v>
+        <v>1239.78</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.915000</v>
+        <v>-101.91500000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>69953.451506</v>
+        <v>69953.451505999998</v>
       </c>
       <c r="AU10" s="1">
         <v>19.431514</v>
       </c>
       <c r="AV10" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.372000</v>
+        <v>-121.372</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>69963.847620</v>
+        <v>69963.84762</v>
       </c>
       <c r="AZ10" s="1">
-        <v>19.434402</v>
+        <v>19.434401999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1258.500000</v>
+        <v>1258.5</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.925000</v>
+        <v>-138.92500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>69974.519543</v>
+        <v>69974.519543000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.437367</v>
+        <v>19.437366999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1299.120000</v>
+        <v>1299.1199999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.216000</v>
+        <v>-221.21600000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>69985.344759</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.440374</v>
+        <v>19.440373999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1369.910000</v>
+        <v>1369.91</v>
       </c>
       <c r="BL10" s="1">
-        <v>-357.723000</v>
+        <v>-357.72300000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>69997.070683</v>
+        <v>69997.070682999998</v>
       </c>
       <c r="BO10" s="1">
         <v>19.443631</v>
       </c>
       <c r="BP10" s="1">
-        <v>1486.380000</v>
+        <v>1486.38</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.604000</v>
+        <v>-578.60400000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>70007.966265</v>
+        <v>70007.966264999995</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.446657</v>
+        <v>19.446656999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1620.330000</v>
+        <v>1620.33</v>
       </c>
       <c r="BV10" s="1">
-        <v>-827.097000</v>
+        <v>-827.09699999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>70018.937308</v>
+        <v>70018.937307999993</v>
       </c>
       <c r="BY10" s="1">
-        <v>19.449705</v>
+        <v>19.449705000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1774.170000</v>
+        <v>1774.17</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1094.990000</v>
+        <v>-1094.99</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>70030.945419</v>
+        <v>70030.945418999996</v>
       </c>
       <c r="CD10" s="1">
-        <v>19.453040</v>
+        <v>19.453040000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2193.870000</v>
+        <v>2193.87</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1742.200000</v>
+        <v>-1742.2</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>69858.892211</v>
+        <v>69858.892210999998</v>
       </c>
       <c r="B11" s="1">
         <v>19.405248</v>
       </c>
       <c r="C11" s="1">
-        <v>1148.000000</v>
+        <v>1148</v>
       </c>
       <c r="D11" s="1">
-        <v>-250.410000</v>
+        <v>-250.41</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>69869.215904</v>
+        <v>69869.215903999997</v>
       </c>
       <c r="G11" s="1">
         <v>19.408116</v>
       </c>
       <c r="H11" s="1">
-        <v>1169.000000</v>
+        <v>1169</v>
       </c>
       <c r="I11" s="1">
-        <v>-210.788000</v>
+        <v>-210.78800000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>69879.666116</v>
+        <v>69879.666115999993</v>
       </c>
       <c r="L11" s="1">
-        <v>19.411018</v>
+        <v>19.411017999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.940000</v>
+        <v>1195.94</v>
       </c>
       <c r="N11" s="1">
-        <v>-147.927000</v>
+        <v>-147.92699999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>69890.114839</v>
+        <v>69890.114839000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>19.413921</v>
+        <v>19.413920999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>1203.850000</v>
+        <v>1203.8499999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-126.813000</v>
+        <v>-126.813</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>69900.576951</v>
+        <v>69900.576950999995</v>
       </c>
       <c r="V11" s="1">
-        <v>19.416827</v>
+        <v>19.416827000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1211.600000</v>
+        <v>1211.5999999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.757000</v>
+        <v>-106.75700000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>69911.038589</v>
+        <v>69911.038589000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.419733</v>
+        <v>19.419733000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1219.420000</v>
+        <v>1219.42</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.415900</v>
+        <v>-90.415899999999993</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>69921.913897</v>
+        <v>69921.913897000006</v>
       </c>
       <c r="AF11" s="1">
-        <v>19.422754</v>
+        <v>19.422754000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1224.400000</v>
+        <v>1224.4000000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.204200</v>
+        <v>-86.2042</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>69932.412669</v>
+        <v>69932.412668999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>19.425670</v>
+        <v>19.42567</v>
       </c>
       <c r="AL11" s="1">
-        <v>1231.650000</v>
+        <v>1231.6500000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.792600</v>
+        <v>-89.792599999999993</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>69942.794444</v>
+        <v>69942.794443999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.428554</v>
+        <v>19.428553999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1239.820000</v>
+        <v>1239.82</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.867000</v>
+        <v>-101.867</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>69953.843810</v>
+        <v>69953.843810000006</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.431623</v>
+        <v>19.431622999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1249.940000</v>
+        <v>1249.94</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.360000</v>
+        <v>-121.36</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>69964.225579</v>
+        <v>69964.225579000005</v>
       </c>
       <c r="AZ11" s="1">
         <v>19.434507</v>
       </c>
       <c r="BA11" s="1">
-        <v>1258.500000</v>
+        <v>1258.5</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.916000</v>
+        <v>-138.916</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>69975.183225</v>
+        <v>69975.183225000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.437551</v>
+        <v>19.437550999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.209000</v>
+        <v>-221.209</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>69986.036647</v>
+        <v>69986.036647000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>19.440566</v>
       </c>
       <c r="BK11" s="1">
-        <v>1369.920000</v>
+        <v>1369.92</v>
       </c>
       <c r="BL11" s="1">
-        <v>-357.738000</v>
+        <v>-357.738</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>69997.577095</v>
+        <v>69997.577095000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.443771</v>
+        <v>19.443771000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1486.360000</v>
+        <v>1486.36</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.645000</v>
+        <v>-578.64499999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>70008.434489</v>
+        <v>70008.434489000007</v>
       </c>
       <c r="BT11" s="1">
         <v>19.446787</v>
       </c>
       <c r="BU11" s="1">
-        <v>1620.420000</v>
+        <v>1620.42</v>
       </c>
       <c r="BV11" s="1">
-        <v>-827.165000</v>
+        <v>-827.16499999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>70019.356429</v>
+        <v>70019.356429000007</v>
       </c>
       <c r="BY11" s="1">
         <v>19.449821</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1774.290000</v>
+        <v>1774.29</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1095.020000</v>
+        <v>-1095.02</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>70031.483114</v>
+        <v>70031.483114000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.453190</v>
+        <v>19.453189999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2192.200000</v>
+        <v>2192.1999999999998</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1740.520000</v>
+        <v>-1740.52</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>69859.171423</v>
+        <v>69859.171423000007</v>
       </c>
       <c r="B12" s="1">
-        <v>19.405325</v>
+        <v>19.405325000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1147.720000</v>
+        <v>1147.72</v>
       </c>
       <c r="D12" s="1">
-        <v>-250.344000</v>
+        <v>-250.34399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>69869.561616</v>
+        <v>69869.561616000006</v>
       </c>
       <c r="G12" s="1">
-        <v>19.408212</v>
+        <v>19.408211999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1167.970000</v>
+        <v>1167.97</v>
       </c>
       <c r="I12" s="1">
-        <v>-211.173000</v>
+        <v>-211.173</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>69880.011859</v>
+        <v>69880.011859000006</v>
       </c>
       <c r="L12" s="1">
-        <v>19.411114</v>
+        <v>19.411114000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1196.140000</v>
+        <v>1196.1400000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.149000</v>
+        <v>-148.149</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>69890.465047</v>
+        <v>69890.465047000005</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.414018</v>
+        <v>19.414017999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1203.950000</v>
+        <v>1203.95</v>
       </c>
       <c r="S12" s="1">
-        <v>-126.756000</v>
+        <v>-126.756</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>69900.921707</v>
+        <v>69900.921707000001</v>
       </c>
       <c r="V12" s="1">
-        <v>19.416923</v>
+        <v>19.416923000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>1211.380000</v>
+        <v>1211.3800000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.744000</v>
+        <v>-106.744</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>69911.737464</v>
+        <v>69911.737464000005</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.419927</v>
+        <v>19.419927000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1219.290000</v>
+        <v>1219.29</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.502600</v>
+        <v>-90.502600000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>69922.257579</v>
+        <v>69922.257578999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.422849</v>
+        <v>19.422848999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1224.230000</v>
+        <v>1224.23</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.249500</v>
+        <v>-86.249499999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>69932.763342</v>
+        <v>69932.763342000006</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.425768</v>
+        <v>19.425768000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1231.640000</v>
+        <v>1231.6400000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.842000</v>
+        <v>-89.841999999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>69943.172880</v>
+        <v>69943.172879999998</v>
       </c>
       <c r="AP12" s="1">
         <v>19.428659</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1239.790000</v>
+        <v>1239.79</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.895000</v>
+        <v>-101.895</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>69954.204401</v>
+        <v>69954.204400999995</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.431723</v>
+        <v>19.431723000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1249.950000</v>
+        <v>1249.95</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.350000</v>
+        <v>-121.35</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>69964.892196</v>
+        <v>69964.892196000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.434692</v>
+        <v>19.434691999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>1258.500000</v>
+        <v>1258.5</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.925000</v>
+        <v>-138.92500000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>69975.632068</v>
+        <v>69975.632068000006</v>
       </c>
       <c r="BE12" s="1">
         <v>19.437676</v>
       </c>
       <c r="BF12" s="1">
-        <v>1299.150000</v>
+        <v>1299.1500000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.184000</v>
+        <v>-221.184</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>69986.503414</v>
+        <v>69986.503414000006</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.440695</v>
+        <v>19.440695000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1369.920000</v>
+        <v>1369.92</v>
       </c>
       <c r="BL12" s="1">
-        <v>-357.751000</v>
+        <v>-357.75099999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>69997.996678</v>
+        <v>69997.996677999996</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.443888</v>
+        <v>19.443888000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1486.400000</v>
+        <v>1486.4</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.616000</v>
+        <v>-578.61599999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>70008.864520</v>
+        <v>70008.864520000003</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.446907</v>
+        <v>19.446906999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1620.350000</v>
+        <v>1620.35</v>
       </c>
       <c r="BV12" s="1">
-        <v>-827.054000</v>
+        <v>-827.05399999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>70019.778523</v>
+        <v>70019.778523000001</v>
       </c>
       <c r="BY12" s="1">
         <v>19.449938</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1774.310000</v>
+        <v>1774.31</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1094.900000</v>
+        <v>-1094.9000000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>70032.022730</v>
+        <v>70032.022729999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>19.453340</v>
+        <v>19.453340000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2192.990000</v>
+        <v>2192.9899999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1743.430000</v>
+        <v>-1743.43</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>69859.512702</v>
+        <v>69859.512702000007</v>
       </c>
       <c r="B13" s="1">
-        <v>19.405420</v>
+        <v>19.405419999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1147.710000</v>
+        <v>1147.71</v>
       </c>
       <c r="D13" s="1">
-        <v>-250.632000</v>
+        <v>-250.63200000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>69869.906335</v>
+        <v>69869.906335000007</v>
       </c>
       <c r="G13" s="1">
-        <v>19.408307</v>
+        <v>19.408307000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1169.270000</v>
+        <v>1169.27</v>
       </c>
       <c r="I13" s="1">
-        <v>-210.591000</v>
+        <v>-210.59100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>69880.357574</v>
+        <v>69880.357573999994</v>
       </c>
       <c r="L13" s="1">
-        <v>19.411210</v>
+        <v>19.411210000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.770000</v>
+        <v>1195.77</v>
       </c>
       <c r="N13" s="1">
-        <v>-147.905000</v>
+        <v>-147.905</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>69891.157427</v>
+        <v>69891.157426999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>19.414210</v>
+        <v>19.414210000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1203.950000</v>
+        <v>1203.95</v>
       </c>
       <c r="S13" s="1">
-        <v>-126.783000</v>
+        <v>-126.783</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>69901.605654</v>
+        <v>69901.605653999999</v>
       </c>
       <c r="V13" s="1">
-        <v>19.417113</v>
+        <v>19.417113000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1211.500000</v>
+        <v>1211.5</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.765000</v>
+        <v>-106.765</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>69912.086128</v>
+        <v>69912.086127999995</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.420024</v>
+        <v>19.420024000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>1219.380000</v>
+        <v>1219.3800000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.417800</v>
+        <v>-90.4178</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>69922.602299</v>
+        <v>69922.602299000006</v>
       </c>
       <c r="AF13" s="1">
-        <v>19.422945</v>
+        <v>19.422944999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1224.200000</v>
+        <v>1224.2</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.950400</v>
+        <v>-85.950400000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>69933.111565</v>
+        <v>69933.111564999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.425864</v>
+        <v>19.425864000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1231.670000</v>
+        <v>1231.67</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.799400</v>
+        <v>-89.799400000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>69943.842478</v>
+        <v>69943.842478000006</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.428845</v>
+        <v>19.428844999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1239.830000</v>
+        <v>1239.83</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.878000</v>
+        <v>-101.878</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>69954.803603</v>
+        <v>69954.803602999993</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.431890</v>
+        <v>19.431889999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.351000</v>
+        <v>-121.351</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>69965.308339</v>
+        <v>69965.308338999996</v>
       </c>
       <c r="AZ13" s="1">
         <v>19.434808</v>
       </c>
       <c r="BA13" s="1">
-        <v>1258.510000</v>
+        <v>1258.51</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.932000</v>
+        <v>-138.93199999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>69975.993155</v>
+        <v>69975.993155000004</v>
       </c>
       <c r="BE13" s="1">
-        <v>19.437776</v>
+        <v>19.437775999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1299.110000</v>
+        <v>1299.1099999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.242000</v>
+        <v>-221.24199999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>69986.891749</v>
+        <v>69986.891749000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.440803</v>
+        <v>19.440802999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1369.940000</v>
+        <v>1369.94</v>
       </c>
       <c r="BL13" s="1">
-        <v>-357.732000</v>
+        <v>-357.73200000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>69998.390999</v>
+        <v>69998.390998999996</v>
       </c>
       <c r="BO13" s="1">
         <v>19.443997</v>
       </c>
       <c r="BP13" s="1">
-        <v>1486.350000</v>
+        <v>1486.35</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.610000</v>
+        <v>-578.61</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>70009.283676</v>
+        <v>70009.283676000006</v>
       </c>
       <c r="BT13" s="1">
-        <v>19.447023</v>
+        <v>19.447023000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1620.400000</v>
+        <v>1620.4</v>
       </c>
       <c r="BV13" s="1">
-        <v>-827.131000</v>
+        <v>-827.13099999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>70020.234809</v>
+        <v>70020.234809000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.450065</v>
+        <v>19.450064999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1774.110000</v>
+        <v>1774.11</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1094.940000</v>
+        <v>-1094.94</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>70032.565878</v>
+        <v>70032.565877999994</v>
       </c>
       <c r="CD13" s="1">
         <v>19.453491</v>
       </c>
       <c r="CE13" s="1">
-        <v>2193.760000</v>
+        <v>2193.7600000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1740.920000</v>
+        <v>-1740.92</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>69859.851439</v>
+        <v>69859.851439000005</v>
       </c>
       <c r="B14" s="1">
         <v>19.405514</v>
       </c>
       <c r="C14" s="1">
-        <v>1147.850000</v>
+        <v>1147.8499999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-250.571000</v>
+        <v>-250.571</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>69870.595279</v>
+        <v>69870.595279000001</v>
       </c>
       <c r="G14" s="1">
-        <v>19.408499</v>
+        <v>19.408498999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1168.210000</v>
+        <v>1168.21</v>
       </c>
       <c r="I14" s="1">
-        <v>-210.953000</v>
+        <v>-210.953</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>69881.049457</v>
+        <v>69881.049457000001</v>
       </c>
       <c r="L14" s="1">
         <v>19.411403</v>
       </c>
       <c r="M14" s="1">
-        <v>1196.010000</v>
+        <v>1196.01</v>
       </c>
       <c r="N14" s="1">
-        <v>-147.844000</v>
+        <v>-147.84399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>69891.507634</v>
+        <v>69891.507633999994</v>
       </c>
       <c r="Q14" s="1">
-        <v>19.414308</v>
+        <v>19.414307999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.920000</v>
+        <v>1203.92</v>
       </c>
       <c r="S14" s="1">
-        <v>-126.852000</v>
+        <v>-126.852</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>69901.951861</v>
+        <v>69901.951860999994</v>
       </c>
       <c r="V14" s="1">
         <v>19.417209</v>
       </c>
       <c r="W14" s="1">
-        <v>1211.440000</v>
+        <v>1211.44</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.842000</v>
+        <v>-106.842</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>69912.437288</v>
+        <v>69912.437288000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.420121</v>
+        <v>19.420121000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1219.440000</v>
+        <v>1219.44</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.455800</v>
+        <v>-90.455799999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>69923.249433</v>
+        <v>69923.249433000005</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.423125</v>
+        <v>19.423124999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1224.290000</v>
+        <v>1224.29</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.238400</v>
+        <v>-86.238399999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>69933.768268</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.426047</v>
+        <v>19.426047000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1231.640000</v>
+        <v>1231.6400000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.834400</v>
+        <v>-89.834400000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>69944.255648</v>
+        <v>69944.255648000006</v>
       </c>
       <c r="AP14" s="1">
-        <v>19.428960</v>
+        <v>19.42896</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1239.800000</v>
+        <v>1239.8</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.894000</v>
+        <v>-101.89400000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>69954.935503</v>
+        <v>69954.935503000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>19.431927</v>
+        <v>19.431927000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>1249.940000</v>
+        <v>1249.94</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.353000</v>
+        <v>-121.35299999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>69965.684802</v>
+        <v>69965.684802000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>19.434912</v>
+        <v>19.434912000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1258.500000</v>
+        <v>1258.5</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.896000</v>
+        <v>-138.89599999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>69976.354771</v>
+        <v>69976.354770999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.437876</v>
+        <v>19.437875999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.210000</v>
+        <v>-221.21</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>69987.268214</v>
+        <v>69987.268213999996</v>
       </c>
       <c r="BJ14" s="1">
         <v>19.440908</v>
       </c>
       <c r="BK14" s="1">
-        <v>1369.910000</v>
+        <v>1369.91</v>
       </c>
       <c r="BL14" s="1">
-        <v>-357.728000</v>
+        <v>-357.72800000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>69998.816567</v>
+        <v>69998.816567000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.444116</v>
+        <v>19.444116000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1486.360000</v>
+        <v>1486.36</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.606000</v>
+        <v>-578.60599999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>70009.707731</v>
+        <v>70009.707731000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>19.447141</v>
+        <v>19.447140999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1620.430000</v>
+        <v>1620.43</v>
       </c>
       <c r="BV14" s="1">
-        <v>-827.015000</v>
+        <v>-827.01499999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>70020.648970</v>
+        <v>70020.648969999995</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.450180</v>
+        <v>19.45018</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1774.090000</v>
+        <v>1774.09</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1095.000000</v>
+        <v>-1095</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>70033.102057</v>
+        <v>70033.102056999996</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.453639</v>
+        <v>19.453638999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2192.130000</v>
+        <v>2192.13</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1742.290000</v>
+        <v>-1742.29</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>69860.537455</v>
+        <v>69860.537454999998</v>
       </c>
       <c r="B15" s="1">
-        <v>19.405705</v>
+        <v>19.405705000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1147.750000</v>
+        <v>1147.75</v>
       </c>
       <c r="D15" s="1">
-        <v>-250.710000</v>
+        <v>-250.71</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>69870.939502</v>
+        <v>69870.939501999994</v>
       </c>
       <c r="G15" s="1">
-        <v>19.408594</v>
+        <v>19.408594000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1169.220000</v>
+        <v>1169.22</v>
       </c>
       <c r="I15" s="1">
-        <v>-211.012000</v>
+        <v>-211.012</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>69881.396711</v>
+        <v>69881.396710999994</v>
       </c>
       <c r="L15" s="1">
-        <v>19.411499</v>
+        <v>19.411498999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1195.610000</v>
+        <v>1195.6099999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-147.920000</v>
+        <v>-147.91999999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>69891.856292</v>
+        <v>69891.856291999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.414405</v>
+        <v>19.414404999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1203.920000</v>
+        <v>1203.92</v>
       </c>
       <c r="S15" s="1">
-        <v>-126.835000</v>
+        <v>-126.83499999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>69902.607573</v>
+        <v>69902.607573000001</v>
       </c>
       <c r="V15" s="1">
-        <v>19.417391</v>
+        <v>19.417390999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1211.430000</v>
+        <v>1211.43</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.592000</v>
+        <v>-106.592</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>69913.086552</v>
+        <v>69913.086551999993</v>
       </c>
       <c r="AA15" s="1">
         <v>19.420302</v>
       </c>
       <c r="AB15" s="1">
-        <v>1219.340000</v>
+        <v>1219.3399999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.428100</v>
+        <v>-90.428100000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>69923.631037</v>
+        <v>69923.631036999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>19.423231</v>
+        <v>19.423231000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1224.180000</v>
+        <v>1224.18</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.255900</v>
+        <v>-86.255899999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>69934.155159</v>
+        <v>69934.155159000002</v>
       </c>
       <c r="AK15" s="1">
         <v>19.426154</v>
       </c>
       <c r="AL15" s="1">
-        <v>1231.630000</v>
+        <v>1231.6300000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.810600</v>
+        <v>-89.810599999999994</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>69944.642525</v>
+        <v>69944.642525000003</v>
       </c>
       <c r="AP15" s="1">
         <v>19.429067</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1239.820000</v>
+        <v>1239.82</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.906000</v>
+        <v>-101.90600000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>69955.334821</v>
+        <v>69955.334820999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.432037</v>
+        <v>19.432037000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1249.960000</v>
+        <v>1249.96</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.374000</v>
+        <v>-121.374</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>69966.067218</v>
+        <v>69966.067217999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>19.435019</v>
       </c>
       <c r="BA15" s="1">
-        <v>1258.490000</v>
+        <v>1258.49</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.936000</v>
+        <v>-138.93600000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>69976.778854</v>
+        <v>69976.778854000004</v>
       </c>
       <c r="BE15" s="1">
         <v>19.437994</v>
       </c>
       <c r="BF15" s="1">
-        <v>1299.110000</v>
+        <v>1299.1099999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.201000</v>
+        <v>-221.20099999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>69987.679893</v>
+        <v>69987.679892999993</v>
       </c>
       <c r="BJ15" s="1">
         <v>19.441022</v>
       </c>
       <c r="BK15" s="1">
-        <v>1369.950000</v>
+        <v>1369.95</v>
       </c>
       <c r="BL15" s="1">
-        <v>-357.723000</v>
+        <v>-357.72300000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>69999.211413</v>
+        <v>69999.211412999997</v>
       </c>
       <c r="BO15" s="1">
-        <v>19.444225</v>
+        <v>19.444224999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1486.400000</v>
+        <v>1486.4</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.640000</v>
+        <v>-578.64</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>70010.132792</v>
+        <v>70010.132792000004</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.447259</v>
+        <v>19.447258999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1620.440000</v>
+        <v>1620.44</v>
       </c>
       <c r="BV15" s="1">
-        <v>-827.103000</v>
+        <v>-827.10299999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>70021.103305</v>
+        <v>70021.103304999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.450306</v>
+        <v>19.450306000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1774.220000</v>
+        <v>1774.22</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1094.900000</v>
+        <v>-1094.9000000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>70033.645144</v>
+        <v>70033.645143999995</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.453790</v>
+        <v>19.453790000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2194.120000</v>
+        <v>2194.12</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1742.240000</v>
+        <v>-1742.24</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>69860.879643</v>
+        <v>69860.879642999993</v>
       </c>
       <c r="B16" s="1">
-        <v>19.405800</v>
+        <v>19.405799999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1147.910000</v>
+        <v>1147.9100000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-250.863000</v>
+        <v>-250.863</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>69871.282758</v>
+        <v>69871.282758000001</v>
       </c>
       <c r="G16" s="1">
-        <v>19.408690</v>
+        <v>19.40869</v>
       </c>
       <c r="H16" s="1">
-        <v>1168.090000</v>
+        <v>1168.0899999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-211.021000</v>
+        <v>-211.02099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>69881.742369</v>
       </c>
       <c r="L16" s="1">
-        <v>19.411595</v>
+        <v>19.411594999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.710000</v>
+        <v>1195.71</v>
       </c>
       <c r="N16" s="1">
-        <v>-147.888000</v>
+        <v>-147.88800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>69892.518948</v>
+        <v>69892.518947999997</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.414589</v>
+        <v>19.414588999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>1203.890000</v>
+        <v>1203.8900000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-126.832000</v>
+        <v>-126.83199999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>69902.978586</v>
+        <v>69902.978585999997</v>
       </c>
       <c r="V16" s="1">
-        <v>19.417494</v>
+        <v>19.417494000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1211.410000</v>
+        <v>1211.4100000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.575000</v>
+        <v>-106.575</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>69913.482855</v>
+        <v>69913.482854999995</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.420412</v>
+        <v>19.420411999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1219.380000</v>
+        <v>1219.3800000000001</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.412900</v>
+        <v>-90.412899999999993</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>69923.972744</v>
+        <v>69923.972743999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.423326</v>
+        <v>19.423325999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1224.360000</v>
+        <v>1224.3599999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.242400</v>
+        <v>-86.242400000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>69934.504298</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.426251</v>
+        <v>19.426251000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1231.640000</v>
+        <v>1231.6400000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.828300</v>
+        <v>-89.828299999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>69945.004641</v>
+        <v>69945.004641000007</v>
       </c>
       <c r="AP16" s="1">
-        <v>19.429168</v>
+        <v>19.429168000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1239.840000</v>
+        <v>1239.8399999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.896000</v>
+        <v>-101.896</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>69955.757374</v>
+        <v>69955.757373999993</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.432155</v>
+        <v>19.432155000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>1249.950000</v>
+        <v>1249.95</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.327000</v>
+        <v>-121.327</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>69966.487852</v>
+        <v>69966.487852000006</v>
       </c>
       <c r="AZ16" s="1">
         <v>19.435136</v>
       </c>
       <c r="BA16" s="1">
-        <v>1258.520000</v>
+        <v>1258.52</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.905000</v>
+        <v>-138.905</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>69977.079426</v>
+        <v>69977.079425999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>19.438078</v>
+        <v>19.438078000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.216000</v>
+        <v>-221.21600000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>69988.019156</v>
+        <v>69988.019155999995</v>
       </c>
       <c r="BJ16" s="1">
-        <v>19.441116</v>
+        <v>19.441116000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1369.910000</v>
+        <v>1369.91</v>
       </c>
       <c r="BL16" s="1">
-        <v>-357.753000</v>
+        <v>-357.75299999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>69999.629509</v>
+        <v>69999.629509000006</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.444342</v>
+        <v>19.444341999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1486.430000</v>
+        <v>1486.43</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.600000</v>
+        <v>-578.6</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>70010.546950</v>
+        <v>70010.546950000004</v>
       </c>
       <c r="BT16" s="1">
         <v>19.447374</v>
       </c>
       <c r="BU16" s="1">
-        <v>1620.400000</v>
+        <v>1620.4</v>
       </c>
       <c r="BV16" s="1">
-        <v>-827.048000</v>
+        <v>-827.048</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>70021.552218</v>
+        <v>70021.552217999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.450431</v>
+        <v>19.450430999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1774.210000</v>
+        <v>1774.21</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1094.790000</v>
+        <v>-1094.79</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>70034.183339</v>
+        <v>70034.183338999996</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.453940</v>
+        <v>19.453939999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2192.080000</v>
+        <v>2192.08</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1740.780000</v>
+        <v>-1740.78</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>69861.221389</v>
+        <v>69861.221388999998</v>
       </c>
       <c r="B17" s="1">
-        <v>19.405895</v>
+        <v>19.405895000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1147.860000</v>
+        <v>1147.8599999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-250.569000</v>
+        <v>-250.56899999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>69871.945390</v>
+        <v>69871.945389999993</v>
       </c>
       <c r="G17" s="1">
-        <v>19.408874</v>
+        <v>19.408874000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1168.050000</v>
+        <v>1168.05</v>
       </c>
       <c r="I17" s="1">
-        <v>-209.992000</v>
+        <v>-209.99199999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>69882.404564</v>
+        <v>69882.404563999997</v>
       </c>
       <c r="L17" s="1">
-        <v>19.411779</v>
+        <v>19.411778999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.950000</v>
+        <v>1195.95</v>
       </c>
       <c r="N17" s="1">
-        <v>-147.837000</v>
+        <v>-147.83699999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>69892.903843</v>
+        <v>69892.903842999993</v>
       </c>
       <c r="Q17" s="1">
-        <v>19.414696</v>
+        <v>19.414695999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1203.870000</v>
+        <v>1203.8699999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-126.800000</v>
+        <v>-126.8</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>69903.324788</v>
+        <v>69903.324787999998</v>
       </c>
       <c r="V17" s="1">
-        <v>19.417590</v>
+        <v>19.417590000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1211.480000</v>
+        <v>1211.48</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.911000</v>
+        <v>-106.911</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>69913.831078</v>
+        <v>69913.831078000003</v>
       </c>
       <c r="AA17" s="1">
-        <v>19.420509</v>
+        <v>19.420508999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1219.430000</v>
+        <v>1219.43</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.360000</v>
+        <v>-90.36</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>69924.318981</v>
+        <v>69924.318981000004</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.423422</v>
+        <v>19.423421999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1224.240000</v>
+        <v>1224.24</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.270600</v>
+        <v>-86.270600000000002</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>69934.851995</v>
+        <v>69934.851995000005</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.426348</v>
+        <v>19.426348000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1231.610000</v>
+        <v>1231.6099999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.829900</v>
+        <v>-89.829899999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>69945.420253</v>
+        <v>69945.420253000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.429283</v>
+        <v>19.429283000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1239.780000</v>
+        <v>1239.78</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.909000</v>
+        <v>-101.90900000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>69956.064894</v>
+        <v>69956.064893999996</v>
       </c>
       <c r="AU17" s="1">
-        <v>19.432240</v>
+        <v>19.43224</v>
       </c>
       <c r="AV17" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.322000</v>
+        <v>-121.322</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>69966.783967</v>
+        <v>69966.783966999996</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.435218</v>
+        <v>19.435217999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1258.490000</v>
+        <v>1258.49</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.915000</v>
+        <v>-138.91499999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>69977.442001</v>
+        <v>69977.442001000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.438178</v>
+        <v>19.438178000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1299.140000</v>
+        <v>1299.1400000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.229000</v>
+        <v>-221.22900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>69988.403059</v>
+        <v>69988.403059000004</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.441223</v>
+        <v>19.441223000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1369.930000</v>
+        <v>1369.93</v>
       </c>
       <c r="BL17" s="1">
-        <v>-357.735000</v>
+        <v>-357.73500000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>70000.027796</v>
+        <v>70000.027795999995</v>
       </c>
       <c r="BO17" s="1">
-        <v>19.444452</v>
+        <v>19.444451999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1486.410000</v>
+        <v>1486.41</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.603000</v>
+        <v>-578.60299999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>70010.974849</v>
+        <v>70010.974849000006</v>
       </c>
       <c r="BT17" s="1">
-        <v>19.447493</v>
+        <v>19.447493000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1620.490000</v>
+        <v>1620.49</v>
       </c>
       <c r="BV17" s="1">
-        <v>-827.181000</v>
+        <v>-827.18100000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>70022.008503</v>
+        <v>70022.008503000005</v>
       </c>
       <c r="BY17" s="1">
-        <v>19.450558</v>
+        <v>19.450558000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1774.200000</v>
+        <v>1774.2</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1094.970000</v>
+        <v>-1094.97</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>70034.722827</v>
+        <v>70034.722827000005</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.454090</v>
+        <v>19.454090000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2193.810000</v>
+        <v>2193.81</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1743.030000</v>
+        <v>-1743.03</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>69861.866683</v>
       </c>
@@ -4593,1523 +5009,1523 @@
         <v>19.406074</v>
       </c>
       <c r="C18" s="1">
-        <v>1148.250000</v>
+        <v>1148.25</v>
       </c>
       <c r="D18" s="1">
-        <v>-250.550000</v>
+        <v>-250.55</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>69872.317390</v>
+        <v>69872.317389999997</v>
       </c>
       <c r="G18" s="1">
         <v>19.408977</v>
       </c>
       <c r="H18" s="1">
-        <v>1167.950000</v>
+        <v>1167.95</v>
       </c>
       <c r="I18" s="1">
-        <v>-211.046000</v>
+        <v>-211.04599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>69882.778511</v>
+        <v>69882.778510999997</v>
       </c>
       <c r="L18" s="1">
         <v>19.411883</v>
       </c>
       <c r="M18" s="1">
-        <v>1196.100000</v>
+        <v>1196.0999999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-147.912000</v>
+        <v>-147.91200000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>69893.253025</v>
+        <v>69893.253024999998</v>
       </c>
       <c r="Q18" s="1">
         <v>19.414793</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.960000</v>
+        <v>1203.96</v>
       </c>
       <c r="S18" s="1">
-        <v>-126.794000</v>
+        <v>-126.794</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>69903.669013</v>
+        <v>69903.669013000006</v>
       </c>
       <c r="V18" s="1">
         <v>19.417686</v>
       </c>
       <c r="W18" s="1">
-        <v>1211.410000</v>
+        <v>1211.4100000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.840000</v>
+        <v>-106.84</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>69914.180725</v>
+        <v>69914.180724999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.420606</v>
+        <v>19.420605999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1219.450000</v>
+        <v>1219.45</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.438500</v>
+        <v>-90.438500000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>69924.750471</v>
+        <v>69924.750471000007</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.423542</v>
+        <v>19.423542000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1224.190000</v>
+        <v>1224.19</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.242400</v>
+        <v>-86.242400000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>69935.285001</v>
+        <v>69935.285000999997</v>
       </c>
       <c r="AK18" s="1">
         <v>19.426468</v>
       </c>
       <c r="AL18" s="1">
-        <v>1231.610000</v>
+        <v>1231.6099999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.832100</v>
+        <v>-89.832099999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>69945.725788</v>
+        <v>69945.725787999996</v>
       </c>
       <c r="AP18" s="1">
         <v>19.429368</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1239.780000</v>
+        <v>1239.78</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.895000</v>
+        <v>-101.895</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>69956.428974</v>
+        <v>69956.428973999995</v>
       </c>
       <c r="AU18" s="1">
-        <v>19.432341</v>
+        <v>19.432341000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.356000</v>
+        <v>-121.35599999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>69967.141551</v>
+        <v>69967.141550999993</v>
       </c>
       <c r="AZ18" s="1">
-        <v>19.435317</v>
+        <v>19.435317000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1258.510000</v>
+        <v>1258.51</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.900000</v>
+        <v>-138.9</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>69977.801073</v>
+        <v>69977.801072999995</v>
       </c>
       <c r="BE18" s="1">
         <v>19.438278</v>
       </c>
       <c r="BF18" s="1">
-        <v>1299.100000</v>
+        <v>1299.0999999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.202000</v>
+        <v>-221.202</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>69988.789443</v>
+        <v>69988.789443000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.441330</v>
+        <v>19.441330000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1369.950000</v>
+        <v>1369.95</v>
       </c>
       <c r="BL18" s="1">
-        <v>-357.710000</v>
+        <v>-357.71</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>70000.451381</v>
+        <v>70000.451381000006</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.444570</v>
+        <v>19.444569999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1486.340000</v>
+        <v>1486.34</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.660000</v>
+        <v>-578.66</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>70011.406550</v>
+        <v>70011.40655</v>
       </c>
       <c r="BT18" s="1">
         <v>19.447613</v>
       </c>
       <c r="BU18" s="1">
-        <v>1620.480000</v>
+        <v>1620.48</v>
       </c>
       <c r="BV18" s="1">
-        <v>-827.010000</v>
+        <v>-827.01</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>70022.458374</v>
+        <v>70022.458373999994</v>
       </c>
       <c r="BY18" s="1">
-        <v>19.450683</v>
+        <v>19.450683000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1774.230000</v>
+        <v>1774.23</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1094.920000</v>
+        <v>-1094.92</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>70035.264613</v>
+        <v>70035.264613000007</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.454240</v>
+        <v>19.454239999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2193.110000</v>
+        <v>2193.11</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1740.490000</v>
+        <v>-1740.49</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>69862.246154</v>
+        <v>69862.246153999993</v>
       </c>
       <c r="B19" s="1">
-        <v>19.406179</v>
+        <v>19.406179000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1148.050000</v>
+        <v>1148.05</v>
       </c>
       <c r="D19" s="1">
-        <v>-250.399000</v>
+        <v>-250.399</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>69872.663100</v>
+        <v>69872.663100000005</v>
       </c>
       <c r="G19" s="1">
-        <v>19.409073</v>
+        <v>19.409072999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1168.280000</v>
+        <v>1168.28</v>
       </c>
       <c r="I19" s="1">
-        <v>-211.175000</v>
+        <v>-211.17500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>69883.126206</v>
+        <v>69883.126206000001</v>
       </c>
       <c r="L19" s="1">
-        <v>19.411980</v>
+        <v>19.41198</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.850000</v>
+        <v>1195.8499999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-147.737000</v>
+        <v>-147.73699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>69893.602227</v>
+        <v>69893.602226999996</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.414890</v>
+        <v>19.41489</v>
       </c>
       <c r="R19" s="1">
-        <v>1203.920000</v>
+        <v>1203.92</v>
       </c>
       <c r="S19" s="1">
-        <v>-126.828000</v>
+        <v>-126.828</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>69904.084380</v>
+        <v>69904.08438</v>
       </c>
       <c r="V19" s="1">
-        <v>19.417801</v>
+        <v>19.417801000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1211.390000</v>
+        <v>1211.3900000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.761000</v>
+        <v>-106.761</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>69914.607316</v>
+        <v>69914.607315999994</v>
       </c>
       <c r="AA19" s="1">
         <v>19.420724</v>
       </c>
       <c r="AB19" s="1">
-        <v>1219.380000</v>
+        <v>1219.3800000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.352200</v>
+        <v>-90.352199999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>69925.028727</v>
+        <v>69925.028726999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>19.423619</v>
+        <v>19.423618999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1224.290000</v>
+        <v>1224.29</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.246100</v>
+        <v>-86.246099999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>69935.562762</v>
+        <v>69935.562762000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.426545</v>
+        <v>19.426545000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1231.630000</v>
+        <v>1231.6300000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.786100</v>
+        <v>-89.786100000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>69946.083403</v>
+        <v>69946.083402999997</v>
       </c>
       <c r="AP19" s="1">
         <v>19.429468</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1239.810000</v>
+        <v>1239.81</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.888000</v>
+        <v>-101.88800000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>69956.795022</v>
+        <v>69956.795022000006</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.432443</v>
+        <v>19.432442999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.327000</v>
+        <v>-121.327</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>69967.499701</v>
+        <v>69967.499700999993</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.435417</v>
+        <v>19.435417000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1258.500000</v>
+        <v>1258.5</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.919000</v>
+        <v>-138.91900000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>69978.521276</v>
+        <v>69978.521275999999</v>
       </c>
       <c r="BE19" s="1">
         <v>19.438478</v>
       </c>
       <c r="BF19" s="1">
-        <v>1299.120000</v>
+        <v>1299.1199999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.213000</v>
+        <v>-221.21299999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>69989.540386</v>
+        <v>69989.540385999993</v>
       </c>
       <c r="BJ19" s="1">
-        <v>19.441539</v>
+        <v>19.441538999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1369.960000</v>
+        <v>1369.96</v>
       </c>
       <c r="BL19" s="1">
-        <v>-357.701000</v>
+        <v>-357.70100000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>70000.848179</v>
+        <v>70000.848178999993</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.444680</v>
+        <v>19.444680000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1486.350000</v>
+        <v>1486.35</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.662000</v>
+        <v>-578.66200000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>70011.816244</v>
+        <v>70011.816244000001</v>
       </c>
       <c r="BT19" s="1">
         <v>19.447727</v>
       </c>
       <c r="BU19" s="1">
-        <v>1620.560000</v>
+        <v>1620.56</v>
       </c>
       <c r="BV19" s="1">
-        <v>-827.145000</v>
+        <v>-827.14499999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>70022.913238</v>
+        <v>70022.913237999994</v>
       </c>
       <c r="BY19" s="1">
         <v>19.450809</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1774.150000</v>
+        <v>1774.15</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1094.920000</v>
+        <v>-1094.92</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>70036.127124</v>
+        <v>70036.127124000006</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.454480</v>
+        <v>19.45448</v>
       </c>
       <c r="CE19" s="1">
-        <v>2194.000000</v>
+        <v>2194</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1742.660000</v>
+        <v>-1742.66</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>69862.591834</v>
+        <v>69862.591834000006</v>
       </c>
       <c r="B20" s="1">
-        <v>19.406276</v>
+        <v>19.406275999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1147.930000</v>
+        <v>1147.93</v>
       </c>
       <c r="D20" s="1">
-        <v>-250.303000</v>
+        <v>-250.303</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>69873.007327</v>
+        <v>69873.007326999999</v>
       </c>
       <c r="G20" s="1">
-        <v>19.409169</v>
+        <v>19.409168999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1168.510000</v>
+        <v>1168.51</v>
       </c>
       <c r="I20" s="1">
-        <v>-211.205000</v>
+        <v>-211.20500000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>69883.470430</v>
+        <v>69883.470430000001</v>
       </c>
       <c r="L20" s="1">
-        <v>19.412075</v>
+        <v>19.412075000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.890000</v>
+        <v>1195.8900000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-147.978000</v>
+        <v>-147.97800000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>69894.029791</v>
+        <v>69894.029790999994</v>
       </c>
       <c r="Q20" s="1">
         <v>19.415008</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.880000</v>
+        <v>1203.8800000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-126.760000</v>
+        <v>-126.76</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>69904.381266</v>
+        <v>69904.381265999997</v>
       </c>
       <c r="V20" s="1">
-        <v>19.417884</v>
+        <v>19.417884000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1211.420000</v>
+        <v>1211.42</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.912000</v>
+        <v>-106.91200000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>69914.887556</v>
+        <v>69914.887556000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.420802</v>
+        <v>19.420801999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1219.240000</v>
+        <v>1219.24</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.499000</v>
+        <v>-90.498999999999995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>69925.371991</v>
+        <v>69925.371991000007</v>
       </c>
       <c r="AF20" s="1">
         <v>19.423714</v>
       </c>
       <c r="AG20" s="1">
-        <v>1224.320000</v>
+        <v>1224.32</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.262200</v>
+        <v>-86.262200000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>69935.908969</v>
+        <v>69935.908968999996</v>
       </c>
       <c r="AK20" s="1">
         <v>19.426641</v>
       </c>
       <c r="AL20" s="1">
-        <v>1231.600000</v>
+        <v>1231.5999999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.802500</v>
+        <v>-89.802499999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>69946.445020</v>
+        <v>69946.445019999999</v>
       </c>
       <c r="AP20" s="1">
         <v>19.429568</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1239.810000</v>
+        <v>1239.81</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.872000</v>
+        <v>-101.872</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>69957.522140</v>
+        <v>69957.522140000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>19.432645</v>
+        <v>19.432645000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.325000</v>
+        <v>-121.325</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>69968.217407</v>
+        <v>69968.217407000004</v>
       </c>
       <c r="AZ20" s="1">
         <v>19.435616</v>
       </c>
       <c r="BA20" s="1">
-        <v>1258.500000</v>
+        <v>1258.5</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.909000</v>
+        <v>-138.90899999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>69978.914096</v>
+        <v>69978.914095999993</v>
       </c>
       <c r="BE20" s="1">
-        <v>19.438587</v>
+        <v>19.438586999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.218000</v>
+        <v>-221.21799999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>69989.942643</v>
+        <v>69989.942643000002</v>
       </c>
       <c r="BJ20" s="1">
         <v>19.441651</v>
       </c>
       <c r="BK20" s="1">
-        <v>1369.920000</v>
+        <v>1369.92</v>
       </c>
       <c r="BL20" s="1">
-        <v>-357.726000</v>
+        <v>-357.726</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>70001.267313</v>
+        <v>70001.267313000004</v>
       </c>
       <c r="BO20" s="1">
         <v>19.444796</v>
       </c>
       <c r="BP20" s="1">
-        <v>1486.390000</v>
+        <v>1486.39</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.640000</v>
+        <v>-578.64</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>70012.553798</v>
+        <v>70012.553797999994</v>
       </c>
       <c r="BT20" s="1">
-        <v>19.447932</v>
+        <v>19.447932000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1620.530000</v>
+        <v>1620.53</v>
       </c>
       <c r="BV20" s="1">
-        <v>-826.981000</v>
+        <v>-826.98099999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>70023.672582</v>
+        <v>70023.672581999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.451020</v>
+        <v>19.45102</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1774.180000</v>
+        <v>1774.18</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1094.970000</v>
+        <v>-1094.97</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>70036.343380</v>
+        <v>70036.343380000006</v>
       </c>
       <c r="CD20" s="1">
-        <v>19.454540</v>
+        <v>19.454540000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2194.040000</v>
+        <v>2194.04</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1742.680000</v>
+        <v>-1742.68</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>69862.930106</v>
       </c>
       <c r="B21" s="1">
-        <v>19.406369</v>
+        <v>19.406369000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1148.280000</v>
+        <v>1148.28</v>
       </c>
       <c r="D21" s="1">
-        <v>-250.635000</v>
+        <v>-250.63499999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>69873.427967</v>
+        <v>69873.427966999996</v>
       </c>
       <c r="G21" s="1">
-        <v>19.409286</v>
+        <v>19.409286000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1168.110000</v>
+        <v>1168.1099999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-210.677000</v>
+        <v>-210.67699999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>69883.969915</v>
+        <v>69883.969914999994</v>
       </c>
       <c r="L21" s="1">
-        <v>19.412214</v>
+        <v>19.412213999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.790000</v>
+        <v>1195.79</v>
       </c>
       <c r="N21" s="1">
-        <v>-147.983000</v>
+        <v>-147.983</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>69894.309536</v>
+        <v>69894.309536000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.415086</v>
+        <v>19.415085999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1203.880000</v>
+        <v>1203.8800000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-126.850000</v>
+        <v>-126.85</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>69904.724498</v>
+        <v>69904.724497999996</v>
       </c>
       <c r="V21" s="1">
-        <v>19.417979</v>
+        <v>19.417978999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1211.440000</v>
+        <v>1211.44</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.884000</v>
+        <v>-106.884</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>69915.238197</v>
+        <v>69915.238196999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>19.420899</v>
+        <v>19.420898999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1219.470000</v>
+        <v>1219.47</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.385400</v>
+        <v>-90.385400000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>69925.715221</v>
+        <v>69925.715221000006</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.423810</v>
+        <v>19.42381</v>
       </c>
       <c r="AG21" s="1">
-        <v>1224.560000</v>
+        <v>1224.56</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.074100</v>
+        <v>-86.074100000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>69936.258153</v>
+        <v>69936.258153000002</v>
       </c>
       <c r="AK21" s="1">
         <v>19.426738</v>
       </c>
       <c r="AL21" s="1">
-        <v>1231.620000</v>
+        <v>1231.6199999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.792100</v>
+        <v>-89.792100000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>69947.165209</v>
+        <v>69947.165208999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>19.429768</v>
+        <v>19.429767999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1239.800000</v>
+        <v>1239.8</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.895000</v>
+        <v>-101.895</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>69957.913981</v>
+        <v>69957.913981000005</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.432754</v>
+        <v>19.432753999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.339000</v>
+        <v>-121.339</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>69968.575981</v>
+        <v>69968.575981000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.435716</v>
+        <v>19.435715999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1258.490000</v>
+        <v>1258.49</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.902000</v>
+        <v>-138.90199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>69979.273695</v>
+        <v>69979.273694999996</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.438687</v>
+        <v>19.438687000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.199000</v>
+        <v>-221.19900000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>69990.317618</v>
+        <v>69990.317618000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.441755</v>
+        <v>19.441755000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1369.930000</v>
+        <v>1369.93</v>
       </c>
       <c r="BL21" s="1">
-        <v>-357.729000</v>
+        <v>-357.72899999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>70001.981079</v>
+        <v>70001.981079000005</v>
       </c>
       <c r="BO21" s="1">
-        <v>19.444995</v>
+        <v>19.444994999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1486.380000</v>
+        <v>1486.38</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.629000</v>
+        <v>-578.62900000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>70012.675812</v>
+        <v>70012.675812000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.447966</v>
+        <v>19.447966000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1620.620000</v>
+        <v>1620.62</v>
       </c>
       <c r="BV21" s="1">
-        <v>-827.096000</v>
+        <v>-827.096</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>70023.811006</v>
+        <v>70023.811006000004</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.451059</v>
+        <v>19.451059000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1774.260000</v>
+        <v>1774.26</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1094.760000</v>
+        <v>-1094.76</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>70036.861256</v>
+        <v>70036.861256000004</v>
       </c>
       <c r="CD21" s="1">
         <v>19.454684</v>
       </c>
       <c r="CE21" s="1">
-        <v>2193.950000</v>
+        <v>2193.9499999999998</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1740.340000</v>
+        <v>-1740.34</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>69863.352232</v>
+        <v>69863.352232000005</v>
       </c>
       <c r="B22" s="1">
-        <v>19.406487</v>
+        <v>19.406486999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1147.780000</v>
+        <v>1147.78</v>
       </c>
       <c r="D22" s="1">
-        <v>-250.512000</v>
+        <v>-250.512</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>69873.703224</v>
+        <v>69873.703223999997</v>
       </c>
       <c r="G22" s="1">
-        <v>19.409362</v>
+        <v>19.409362000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>1168.850000</v>
+        <v>1168.8499999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-211.289000</v>
+        <v>-211.28899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>69884.164829</v>
+        <v>69884.164829000001</v>
       </c>
       <c r="L22" s="1">
-        <v>19.412268</v>
+        <v>19.412268000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="N22" s="1">
-        <v>-147.814000</v>
+        <v>-147.81399999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>69894.658226</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.415183</v>
+        <v>19.415182999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.870000</v>
+        <v>1203.8699999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-126.776000</v>
+        <v>-126.776</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>69905.070210</v>
+        <v>69905.070210000005</v>
       </c>
       <c r="V22" s="1">
-        <v>19.418075</v>
+        <v>19.418075000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1211.480000</v>
+        <v>1211.48</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.890000</v>
+        <v>-106.89</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>69915.584937</v>
+        <v>69915.584937000007</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.420996</v>
+        <v>19.420995999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.426800</v>
+        <v>-90.4268</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>69926.400165</v>
+        <v>69926.400164999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.424000</v>
+        <v>19.423999999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1224.190000</v>
+        <v>1224.19</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.317500</v>
+        <v>-86.317499999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>69936.957050</v>
+        <v>69936.957049999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>19.426933</v>
+        <v>19.426932999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>1231.620000</v>
+        <v>1231.6199999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.800000</v>
+        <v>-89.8</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>69947.521801</v>
+        <v>69947.521800999995</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.429867</v>
+        <v>19.429867000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1239.790000</v>
+        <v>1239.79</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.886000</v>
+        <v>-101.886</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>69958.273580</v>
+        <v>69958.273579999994</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.432854</v>
+        <v>19.432853999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1249.920000</v>
+        <v>1249.92</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.320000</v>
+        <v>-121.32</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>69968.934589</v>
+        <v>69968.934588999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.435815</v>
+        <v>19.435815000000002</v>
       </c>
       <c r="BA22" s="1">
-        <v>1258.500000</v>
+        <v>1258.5</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.912000</v>
+        <v>-138.91200000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>69979.951257</v>
+        <v>69979.951256999993</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.438875</v>
+        <v>19.438874999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.247000</v>
+        <v>-221.24700000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>69991.101297</v>
+        <v>69991.101297000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.441973</v>
+        <v>19.441973000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1369.940000</v>
+        <v>1369.94</v>
       </c>
       <c r="BL22" s="1">
-        <v>-357.682000</v>
+        <v>-357.68200000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>70002.102562</v>
       </c>
       <c r="BO22" s="1">
-        <v>19.445028</v>
+        <v>19.445028000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1486.410000</v>
+        <v>1486.41</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.600000</v>
+        <v>-578.6</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>70013.083491</v>
+        <v>70013.083490999998</v>
       </c>
       <c r="BT22" s="1">
         <v>19.448079</v>
       </c>
       <c r="BU22" s="1">
-        <v>1620.590000</v>
+        <v>1620.59</v>
       </c>
       <c r="BV22" s="1">
-        <v>-827.040000</v>
+        <v>-827.04</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>70024.233555</v>
+        <v>70024.233554999999</v>
       </c>
       <c r="BY22" s="1">
         <v>19.451176</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1774.230000</v>
+        <v>1774.23</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1094.920000</v>
+        <v>-1094.92</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>70037.378034</v>
+        <v>70037.378033999994</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.454827</v>
+        <v>19.454827000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>2193.940000</v>
+        <v>2193.94</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1741.590000</v>
+        <v>-1741.59</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>69863.630953</v>
       </c>
       <c r="B23" s="1">
-        <v>19.406564</v>
+        <v>19.406563999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1147.870000</v>
+        <v>1147.8699999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-250.557000</v>
+        <v>-250.55699999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>69874.048923</v>
+        <v>69874.048922999995</v>
       </c>
       <c r="G23" s="1">
-        <v>19.409458</v>
+        <v>19.409458000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1168.430000</v>
+        <v>1168.43</v>
       </c>
       <c r="I23" s="1">
-        <v>-210.711000</v>
+        <v>-210.71100000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>69884.506108</v>
+        <v>69884.506108000001</v>
       </c>
       <c r="L23" s="1">
-        <v>19.412363</v>
+        <v>19.412362999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1196.110000</v>
+        <v>1196.1099999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-147.819000</v>
+        <v>-147.81899999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>69895.006420</v>
+        <v>69895.006420000005</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.415280</v>
+        <v>19.415279999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1203.950000</v>
+        <v>1203.95</v>
       </c>
       <c r="S23" s="1">
-        <v>-126.764000</v>
+        <v>-126.764</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>69905.757705</v>
+        <v>69905.757704999996</v>
       </c>
       <c r="V23" s="1">
-        <v>19.418266</v>
+        <v>19.418265999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1211.560000</v>
+        <v>1211.56</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.758000</v>
+        <v>-106.758</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>69916.283307</v>
+        <v>69916.283307000005</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.421190</v>
+        <v>19.421189999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1219.440000</v>
+        <v>1219.44</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.366500</v>
+        <v>-90.366500000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>69926.742934</v>
+        <v>69926.742933999994</v>
       </c>
       <c r="AF23" s="1">
-        <v>19.424095</v>
+        <v>19.424095000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.254900</v>
+        <v>-86.254900000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>69937.305740</v>
+        <v>69937.305739999996</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.427029</v>
+        <v>19.427029000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1231.660000</v>
+        <v>1231.6600000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.814400</v>
+        <v>-89.814400000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>69947.888346</v>
+        <v>69947.888346000007</v>
       </c>
       <c r="AP23" s="1">
         <v>19.429969</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1239.790000</v>
+        <v>1239.79</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.873000</v>
+        <v>-101.873</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>69958.953130</v>
+        <v>69958.953129999994</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.433043</v>
+        <v>19.433043000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.324000</v>
+        <v>-121.324</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>69969.602237</v>
+        <v>69969.602236999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>19.436001</v>
+        <v>19.436001000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1258.480000</v>
+        <v>1258.48</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.924000</v>
+        <v>-138.92400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>69980.382254</v>
+        <v>69980.382253999996</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.438995</v>
+        <v>19.438994999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1299.140000</v>
+        <v>1299.1400000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.242000</v>
+        <v>-221.24199999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>69991.476610</v>
+        <v>69991.476609999998</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.442077</v>
+        <v>19.442077000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1369.930000</v>
+        <v>1369.93</v>
       </c>
       <c r="BL23" s="1">
-        <v>-357.736000</v>
+        <v>-357.73599999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>70002.513744</v>
+        <v>70002.513743999996</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.445143</v>
+        <v>19.445143000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1486.400000</v>
+        <v>1486.4</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.661000</v>
+        <v>-578.66099999999994</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>70013.517528</v>
+        <v>70013.517527999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.448199</v>
+        <v>19.448198999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1620.680000</v>
+        <v>1620.68</v>
       </c>
       <c r="BV23" s="1">
-        <v>-827.067000</v>
+        <v>-827.06700000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>70024.659621</v>
+        <v>70024.659620999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.451294</v>
+        <v>19.451294000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1774.170000</v>
+        <v>1774.17</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1094.930000</v>
+        <v>-1094.93</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>70037.930578</v>
@@ -6118,180 +6534,180 @@
         <v>19.454981</v>
       </c>
       <c r="CE23" s="1">
-        <v>2194.490000</v>
+        <v>2194.4899999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1742.350000</v>
+        <v>-1742.35</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>69863.975177</v>
       </c>
       <c r="B24" s="1">
-        <v>19.406660</v>
+        <v>19.406659999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1147.910000</v>
+        <v>1147.9100000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-250.585000</v>
+        <v>-250.58500000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>69874.392154</v>
+        <v>69874.392154000001</v>
       </c>
       <c r="G24" s="1">
-        <v>19.409553</v>
+        <v>19.409552999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1169.040000</v>
+        <v>1169.04</v>
       </c>
       <c r="I24" s="1">
-        <v>-210.759000</v>
+        <v>-210.75899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>69885.196018</v>
+        <v>69885.196018000002</v>
       </c>
       <c r="L24" s="1">
         <v>19.412554</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.980000</v>
+        <v>1195.98</v>
       </c>
       <c r="N24" s="1">
-        <v>-147.899000</v>
+        <v>-147.899</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>69895.704293</v>
+        <v>69895.704293000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.415473</v>
+        <v>19.415472999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1203.990000</v>
+        <v>1203.99</v>
       </c>
       <c r="S24" s="1">
-        <v>-126.801000</v>
+        <v>-126.801</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>69906.100418</v>
+        <v>69906.100418000002</v>
       </c>
       <c r="V24" s="1">
-        <v>19.418361</v>
+        <v>19.418361000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1211.460000</v>
+        <v>1211.46</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.906000</v>
+        <v>-106.90600000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>69916.631988</v>
+        <v>69916.631987999994</v>
       </c>
       <c r="AA24" s="1">
         <v>19.421287</v>
       </c>
       <c r="AB24" s="1">
-        <v>1219.400000</v>
+        <v>1219.4000000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.503200</v>
+        <v>-90.503200000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>69927.086132</v>
+        <v>69927.086131999997</v>
       </c>
       <c r="AF24" s="1">
         <v>19.424191</v>
       </c>
       <c r="AG24" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.163300</v>
+        <v>-86.163300000000007</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>69937.968359</v>
+        <v>69937.968359000006</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.427213</v>
+        <v>19.427212999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>1231.680000</v>
+        <v>1231.68</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.802600</v>
+        <v>-89.802599999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>69948.554012</v>
+        <v>69948.554011999993</v>
       </c>
       <c r="AP24" s="1">
-        <v>19.430154</v>
+        <v>19.430154000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1239.820000</v>
+        <v>1239.82</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.855000</v>
+        <v>-101.855</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>69959.374234</v>
+        <v>69959.374234000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.433160</v>
+        <v>19.433160000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1249.920000</v>
+        <v>1249.92</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.358000</v>
+        <v>-121.358</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>69970.007932</v>
+        <v>69970.007931999993</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.436113</v>
+        <v>19.436112999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1258.530000</v>
+        <v>1258.53</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.920000</v>
+        <v>-138.91999999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>69980.748301</v>
@@ -6300,604 +6716,605 @@
         <v>19.439097</v>
       </c>
       <c r="BF24" s="1">
-        <v>1299.150000</v>
+        <v>1299.1500000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.228000</v>
+        <v>-221.22800000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>69991.855247</v>
       </c>
       <c r="BJ24" s="1">
-        <v>19.442182</v>
+        <v>19.442181999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1369.940000</v>
+        <v>1369.94</v>
       </c>
       <c r="BL24" s="1">
-        <v>-357.732000</v>
+        <v>-357.73200000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>70002.908070</v>
+        <v>70002.908070000005</v>
       </c>
       <c r="BO24" s="1">
         <v>19.445252</v>
       </c>
       <c r="BP24" s="1">
-        <v>1486.340000</v>
+        <v>1486.34</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.634000</v>
+        <v>-578.63400000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>70013.948545</v>
+        <v>70013.948545000007</v>
       </c>
       <c r="BT24" s="1">
-        <v>19.448319</v>
+        <v>19.448319000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1620.730000</v>
+        <v>1620.73</v>
       </c>
       <c r="BV24" s="1">
-        <v>-826.966000</v>
+        <v>-826.96600000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>70025.106022</v>
+        <v>70025.106022000007</v>
       </c>
       <c r="BY24" s="1">
         <v>19.451418</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1774.330000</v>
+        <v>1774.33</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1094.970000</v>
+        <v>-1094.97</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>70038.461794</v>
+        <v>70038.461794000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.455128</v>
+        <v>19.455127999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>2193.630000</v>
+        <v>2193.63</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1740.380000</v>
+        <v>-1740.38</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>69864.316919</v>
+        <v>69864.316919000004</v>
       </c>
       <c r="B25" s="1">
         <v>19.406755</v>
       </c>
       <c r="C25" s="1">
-        <v>1148.070000</v>
+        <v>1148.07</v>
       </c>
       <c r="D25" s="1">
-        <v>-250.612000</v>
+        <v>-250.61199999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>69875.083081</v>
+        <v>69875.083081000004</v>
       </c>
       <c r="G25" s="1">
-        <v>19.409745</v>
+        <v>19.409745000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1168.370000</v>
+        <v>1168.3699999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-210.975000</v>
+        <v>-210.97499999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>69885.543742</v>
+        <v>69885.543741999994</v>
       </c>
       <c r="L25" s="1">
         <v>19.412651</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.870000</v>
+        <v>1195.8699999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.036000</v>
+        <v>-148.036</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>69896.050462</v>
+        <v>69896.050461999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.415570</v>
+        <v>19.415569999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.890000</v>
+        <v>1203.8900000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-126.866000</v>
+        <v>-126.866</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>69906.441684</v>
+        <v>69906.441684000005</v>
       </c>
       <c r="V25" s="1">
-        <v>19.418456</v>
+        <v>19.418455999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1211.550000</v>
+        <v>1211.55</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.738000</v>
+        <v>-106.738</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>69916.981137</v>
+        <v>69916.981136999995</v>
       </c>
       <c r="AA25" s="1">
         <v>19.421384</v>
       </c>
       <c r="AB25" s="1">
-        <v>1219.260000</v>
+        <v>1219.26</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.443500</v>
+        <v>-90.4435</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>69927.742835</v>
+        <v>69927.742834999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.424373</v>
+        <v>19.424372999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1224.250000</v>
+        <v>1224.25</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.229300</v>
+        <v>-86.229299999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>69938.351269</v>
+        <v>69938.351269000006</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.427320</v>
+        <v>19.427320000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>1231.660000</v>
+        <v>1231.6600000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.811900</v>
+        <v>-89.811899999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>69948.997160</v>
+        <v>69948.997159999999</v>
       </c>
       <c r="AP25" s="1">
         <v>19.430277</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1239.820000</v>
+        <v>1239.82</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.906000</v>
+        <v>-101.90600000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>69959.737801</v>
+        <v>69959.737800999996</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.433261</v>
+        <v>19.433261000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1249.960000</v>
+        <v>1249.96</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.355000</v>
+        <v>-121.355</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>69970.386875</v>
+        <v>69970.386874999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>19.436219</v>
+        <v>19.436219000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1258.510000</v>
+        <v>1258.51</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.913000</v>
+        <v>-138.91300000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>69981.109404</v>
+        <v>69981.109404000003</v>
       </c>
       <c r="BE25" s="1">
         <v>19.439197</v>
       </c>
       <c r="BF25" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.208000</v>
+        <v>-221.208</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>69992.279329</v>
+        <v>69992.279328999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>19.442300</v>
+        <v>19.442299999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1369.940000</v>
+        <v>1369.94</v>
       </c>
       <c r="BL25" s="1">
-        <v>-357.743000</v>
+        <v>-357.74299999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>70003.328704</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.445369</v>
+        <v>19.445368999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1486.430000</v>
+        <v>1486.43</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.612000</v>
+        <v>-578.61199999999997</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>70014.357880</v>
+        <v>70014.357879999996</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.448433</v>
+        <v>19.448433000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1620.740000</v>
+        <v>1620.74</v>
       </c>
       <c r="BV25" s="1">
-        <v>-827.003000</v>
+        <v>-827.00300000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>70025.537539</v>
+        <v>70025.537538999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>19.451538</v>
+        <v>19.451537999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1774.290000</v>
+        <v>1774.29</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1094.800000</v>
+        <v>-1094.8</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>70038.980112</v>
+        <v>70038.980112000005</v>
       </c>
       <c r="CD25" s="1">
-        <v>19.455272</v>
+        <v>19.455272000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2192.010000</v>
+        <v>2192.0100000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1741.340000</v>
+        <v>-1741.34</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>69864.998422</v>
+        <v>69864.998422000004</v>
       </c>
       <c r="B26" s="1">
-        <v>19.406944</v>
+        <v>19.406943999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1147.930000</v>
+        <v>1147.93</v>
       </c>
       <c r="D26" s="1">
-        <v>-250.497000</v>
+        <v>-250.49700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>69875.424824</v>
+        <v>69875.424824000002</v>
       </c>
       <c r="G26" s="1">
-        <v>19.409840</v>
+        <v>19.409839999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1167.840000</v>
+        <v>1167.8399999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-210.586000</v>
+        <v>-210.58600000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>69885.893914</v>
       </c>
       <c r="L26" s="1">
-        <v>19.412748</v>
+        <v>19.412748000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.820000</v>
+        <v>1195.82</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.043000</v>
+        <v>-148.04300000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>69896.402622</v>
+        <v>69896.402621999994</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.415667</v>
+        <v>19.415666999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1203.940000</v>
+        <v>1203.94</v>
       </c>
       <c r="S26" s="1">
-        <v>-126.885000</v>
+        <v>-126.88500000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>69907.096366</v>
+        <v>69907.096365999998</v>
       </c>
       <c r="V26" s="1">
-        <v>19.418638</v>
+        <v>19.418638000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1211.400000</v>
+        <v>1211.4000000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.764000</v>
+        <v>-106.764</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>69917.649288</v>
+        <v>69917.649288000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.421569</v>
+        <v>19.421569000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>1219.410000</v>
+        <v>1219.4100000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.451200</v>
+        <v>-90.4512</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>69928.118307</v>
+        <v>69928.118306999997</v>
       </c>
       <c r="AF26" s="1">
         <v>19.424477</v>
       </c>
       <c r="AG26" s="1">
-        <v>1224.340000</v>
+        <v>1224.3399999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.221200</v>
+        <v>-86.221199999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>69938.698965</v>
+        <v>69938.698965000003</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.427416</v>
+        <v>19.427416000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1231.670000</v>
+        <v>1231.67</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.805300</v>
+        <v>-89.805300000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>69949.359479</v>
+        <v>69949.359479000006</v>
       </c>
       <c r="AP26" s="1">
-        <v>19.430378</v>
+        <v>19.430378000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1239.800000</v>
+        <v>1239.8</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.879000</v>
+        <v>-101.879</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>69960.102330</v>
+        <v>69960.102329999994</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.433362</v>
+        <v>19.433361999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1249.940000</v>
+        <v>1249.94</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.365000</v>
+        <v>-121.36499999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>69970.755898</v>
+        <v>69970.755898000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>19.436321</v>
       </c>
       <c r="BA26" s="1">
-        <v>1258.480000</v>
+        <v>1258.48</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.914000</v>
+        <v>-138.91399999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>69981.524044</v>
+        <v>69981.524044000005</v>
       </c>
       <c r="BE26" s="1">
-        <v>19.439312</v>
+        <v>19.439312000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.247000</v>
+        <v>-221.24700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>69992.631454</v>
+        <v>69992.631454000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.442398</v>
+        <v>19.442398000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1369.940000</v>
+        <v>1369.94</v>
       </c>
       <c r="BL26" s="1">
-        <v>-357.718000</v>
+        <v>-357.71800000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>70003.726481</v>
+        <v>70003.726481000005</v>
       </c>
       <c r="BO26" s="1">
-        <v>19.445480</v>
+        <v>19.44548</v>
       </c>
       <c r="BP26" s="1">
-        <v>1486.420000</v>
+        <v>1486.42</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.595000</v>
+        <v>-578.59500000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>70014.789232</v>
+        <v>70014.789231999996</v>
       </c>
       <c r="BT26" s="1">
         <v>19.448553</v>
       </c>
       <c r="BU26" s="1">
-        <v>1620.720000</v>
+        <v>1620.72</v>
       </c>
       <c r="BV26" s="1">
-        <v>-826.949000</v>
+        <v>-826.94899999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>70025.961159</v>
+        <v>70025.961158999999</v>
       </c>
       <c r="BY26" s="1">
         <v>19.451656</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1774.150000</v>
+        <v>1774.15</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1094.970000</v>
+        <v>-1094.97</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>70039.496489</v>
+        <v>70039.496488999997</v>
       </c>
       <c r="CD26" s="1">
         <v>19.455416</v>
       </c>
       <c r="CE26" s="1">
-        <v>2193.060000</v>
+        <v>2193.06</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1742.950000</v>
+        <v>-1742.95</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>